--- a/src/Vollanalysen.xlsx
+++ b/src/Vollanalysen.xlsx
@@ -8,35 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Projekte\NuVe\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6098EFCD-58E4-44CF-8E62-4F414C409D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DF94F6-C4BA-4AE9-8D0D-3B62430A120C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="726" activeTab="23" xr2:uid="{15B55FA9-FDF5-44FF-A42C-EF11325012E1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="726" activeTab="1" xr2:uid="{15B55FA9-FDF5-44FF-A42C-EF11325012E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht NV" sheetId="1" r:id="rId1"/>
-    <sheet name="A01" sheetId="2" r:id="rId2"/>
-    <sheet name="A02" sheetId="3" r:id="rId3"/>
-    <sheet name="A04" sheetId="4" r:id="rId4"/>
-    <sheet name="A05" sheetId="5" r:id="rId5"/>
-    <sheet name="A06" sheetId="6" r:id="rId6"/>
-    <sheet name="A07" sheetId="7" r:id="rId7"/>
-    <sheet name="A08" sheetId="8" r:id="rId8"/>
-    <sheet name="A10" sheetId="9" r:id="rId9"/>
-    <sheet name="B01" sheetId="10" r:id="rId10"/>
-    <sheet name="C01" sheetId="11" r:id="rId11"/>
-    <sheet name="C02" sheetId="12" r:id="rId12"/>
-    <sheet name="D01" sheetId="13" r:id="rId13"/>
-    <sheet name="FILTER_A01" sheetId="14" r:id="rId14"/>
-    <sheet name="KWO" sheetId="15" r:id="rId15"/>
-    <sheet name="NV10_MK" sheetId="16" r:id="rId16"/>
-    <sheet name="NV1_MK" sheetId="17" r:id="rId17"/>
-    <sheet name="NV2" sheetId="18" r:id="rId18"/>
-    <sheet name="NV3" sheetId="19" r:id="rId19"/>
-    <sheet name="NV4" sheetId="20" r:id="rId20"/>
-    <sheet name="NVA" sheetId="21" r:id="rId21"/>
-    <sheet name="NV_Biblis" sheetId="22" r:id="rId22"/>
-    <sheet name="Y01" sheetId="23" r:id="rId23"/>
-    <sheet name="Z02" sheetId="24" r:id="rId24"/>
+    <sheet name="ALLE" sheetId="25" r:id="rId2"/>
+    <sheet name="A01" sheetId="2" r:id="rId3"/>
+    <sheet name="A02" sheetId="3" r:id="rId4"/>
+    <sheet name="A04" sheetId="4" r:id="rId5"/>
+    <sheet name="A05" sheetId="5" r:id="rId6"/>
+    <sheet name="A06" sheetId="6" r:id="rId7"/>
+    <sheet name="A07" sheetId="7" r:id="rId8"/>
+    <sheet name="A08" sheetId="8" r:id="rId9"/>
+    <sheet name="A10" sheetId="9" r:id="rId10"/>
+    <sheet name="B01" sheetId="10" r:id="rId11"/>
+    <sheet name="C01" sheetId="11" r:id="rId12"/>
+    <sheet name="C02" sheetId="12" r:id="rId13"/>
+    <sheet name="D01" sheetId="13" r:id="rId14"/>
+    <sheet name="FILTER_A01" sheetId="14" r:id="rId15"/>
+    <sheet name="KWO" sheetId="15" r:id="rId16"/>
+    <sheet name="NV10_MK" sheetId="16" r:id="rId17"/>
+    <sheet name="NV1_MK" sheetId="17" r:id="rId18"/>
+    <sheet name="NV2" sheetId="18" r:id="rId19"/>
+    <sheet name="NV3" sheetId="19" r:id="rId20"/>
+    <sheet name="NV4" sheetId="20" r:id="rId21"/>
+    <sheet name="NVA" sheetId="21" r:id="rId22"/>
+    <sheet name="NV_Biblis" sheetId="22" r:id="rId23"/>
+    <sheet name="Y01" sheetId="23" r:id="rId24"/>
+    <sheet name="Z02" sheetId="24" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="72">
   <si>
     <t>NV</t>
   </si>
@@ -267,6 +268,9 @@
   </si>
   <si>
     <t>C14</t>
+  </si>
+  <si>
+    <t>ALLE</t>
   </si>
 </sst>
 </file>
@@ -619,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529D45D8-7CDE-4EAD-BAEC-1DC108F8D10A}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,17 +791,870 @@
         <v>36</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B759AF24-7AF8-4E54-A8C9-8D6D1987B51E}">
+  <dimension ref="A1:Q34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:Q1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="C2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="F2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="G2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="H2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="I2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="J2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="K2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="L2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="M2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="N2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="O2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="P2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>42622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>6.8</v>
+      </c>
+      <c r="C5">
+        <v>3.2</v>
+      </c>
+      <c r="D5">
+        <v>2.4</v>
+      </c>
+      <c r="E5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>3.1</v>
+      </c>
+      <c r="H5">
+        <v>0.18</v>
+      </c>
+      <c r="I5">
+        <v>1.8</v>
+      </c>
+      <c r="J5">
+        <v>7.9</v>
+      </c>
+      <c r="K5">
+        <v>1.9</v>
+      </c>
+      <c r="L5">
+        <v>2.59</v>
+      </c>
+      <c r="M5">
+        <v>10.1</v>
+      </c>
+      <c r="N5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="O5">
+        <v>2.73</v>
+      </c>
+      <c r="P5">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="Q5">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.12</v>
+      </c>
+      <c r="F7">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="J7">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="K7">
+        <v>3.1E-2</v>
+      </c>
+      <c r="L7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N7">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="O7">
+        <v>0.04</v>
+      </c>
+      <c r="Q7">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>0.47</v>
+      </c>
+      <c r="C9">
+        <v>0.1</v>
+      </c>
+      <c r="D9">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.61</v>
+      </c>
+      <c r="F9">
+        <v>0.38</v>
+      </c>
+      <c r="G9">
+        <v>0.16</v>
+      </c>
+      <c r="I9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.74</v>
+      </c>
+      <c r="K9">
+        <v>0.16</v>
+      </c>
+      <c r="L9">
+        <v>0.13</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0.68</v>
+      </c>
+      <c r="O9">
+        <v>0.22</v>
+      </c>
+      <c r="P9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="Q9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>4.7</v>
+      </c>
+      <c r="D13">
+        <v>2.7</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H13">
+        <v>2.9</v>
+      </c>
+      <c r="I13">
+        <v>1.4</v>
+      </c>
+      <c r="J13">
+        <v>14.6</v>
+      </c>
+      <c r="K13">
+        <v>5.31</v>
+      </c>
+      <c r="L13">
+        <v>3.31</v>
+      </c>
+      <c r="M13">
+        <v>14.8</v>
+      </c>
+      <c r="N13">
+        <v>13.4</v>
+      </c>
+      <c r="O13">
+        <v>4.29</v>
+      </c>
+      <c r="P13">
+        <v>3.39</v>
+      </c>
+      <c r="Q13">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>2.7</v>
+      </c>
+      <c r="C19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D19">
+        <v>2.8</v>
+      </c>
+      <c r="E19">
+        <v>3.8</v>
+      </c>
+      <c r="F19">
+        <v>2.1</v>
+      </c>
+      <c r="G19">
+        <v>1.2</v>
+      </c>
+      <c r="H19">
+        <v>1.7</v>
+      </c>
+      <c r="I19">
+        <v>0.15</v>
+      </c>
+      <c r="J19">
+        <v>2.7</v>
+      </c>
+      <c r="K19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L19">
+        <v>2.8</v>
+      </c>
+      <c r="M19">
+        <v>3.8</v>
+      </c>
+      <c r="N19">
+        <v>2.1</v>
+      </c>
+      <c r="O19">
+        <v>1.2</v>
+      </c>
+      <c r="P19">
+        <v>1.7</v>
+      </c>
+      <c r="Q19">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>79</v>
+      </c>
+      <c r="C20">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>72</v>
+      </c>
+      <c r="F20">
+        <v>60</v>
+      </c>
+      <c r="G20">
+        <v>23</v>
+      </c>
+      <c r="H20">
+        <v>14</v>
+      </c>
+      <c r="I20">
+        <v>2.5</v>
+      </c>
+      <c r="J20">
+        <v>79</v>
+      </c>
+      <c r="K20">
+        <v>29</v>
+      </c>
+      <c r="L20">
+        <v>13</v>
+      </c>
+      <c r="M20">
+        <v>72</v>
+      </c>
+      <c r="N20">
+        <v>60</v>
+      </c>
+      <c r="O20">
+        <v>23</v>
+      </c>
+      <c r="P20">
+        <v>14</v>
+      </c>
+      <c r="Q20">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21">
+        <v>0.42</v>
+      </c>
+      <c r="C21">
+        <v>0.12</v>
+      </c>
+      <c r="D21">
+        <v>0.12</v>
+      </c>
+      <c r="E21">
+        <v>0.37</v>
+      </c>
+      <c r="F21">
+        <v>0.35</v>
+      </c>
+      <c r="G21">
+        <v>0.41</v>
+      </c>
+      <c r="J21">
+        <v>0.42</v>
+      </c>
+      <c r="K21">
+        <v>0.12</v>
+      </c>
+      <c r="L21">
+        <v>0.12</v>
+      </c>
+      <c r="M21">
+        <v>0.37</v>
+      </c>
+      <c r="N21">
+        <v>0.35</v>
+      </c>
+      <c r="O21">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C22">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D22">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E22">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F22">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G22">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H22">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J22">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="K22">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L22">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="M22">
+        <v>2.3E-2</v>
+      </c>
+      <c r="N22">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="O22">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="P22">
+        <v>2.4E-2</v>
+      </c>
+      <c r="Q22">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C23">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E23">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G23">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H23">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I23">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J23">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K23">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M23">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="N23">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="O23">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="P23">
+        <v>2.4E-2</v>
+      </c>
+      <c r="Q23">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C25">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E25">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F25">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G25">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I25">
+        <v>3.8E-3</v>
+      </c>
+      <c r="J25">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="K25">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M25">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="N25">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O25">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="Q25">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E26">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F26">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G26">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J26">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="M26">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="N26">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O26">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27">
+        <v>0.61</v>
+      </c>
+      <c r="C27">
+        <v>0.12</v>
+      </c>
+      <c r="D27">
+        <v>0.18</v>
+      </c>
+      <c r="E27">
+        <v>1.3</v>
+      </c>
+      <c r="F27">
+        <v>0.63</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0.61</v>
+      </c>
+      <c r="K27">
+        <v>0.12</v>
+      </c>
+      <c r="L27">
+        <v>0.18</v>
+      </c>
+      <c r="M27">
+        <v>1.3</v>
+      </c>
+      <c r="N27">
+        <v>0.63</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28">
+        <v>0.13</v>
+      </c>
+      <c r="C28">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D28">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E28">
+        <v>0.2</v>
+      </c>
+      <c r="F28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G28">
+        <v>0.21</v>
+      </c>
+      <c r="I28">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J28">
+        <v>0.13</v>
+      </c>
+      <c r="K28">
+        <v>3.9E-2</v>
+      </c>
+      <c r="L28">
+        <v>3.1E-2</v>
+      </c>
+      <c r="M28">
+        <v>0.2</v>
+      </c>
+      <c r="N28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O28">
+        <v>0.21</v>
+      </c>
+      <c r="Q28">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="E30">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F30">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="G30">
+        <v>1.4E-2</v>
+      </c>
+      <c r="J30">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="M30">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N30">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="O30">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27151503-B05E-4040-A22D-1E56BDD150E5}">
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B1" sqref="B1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1448,7 +2305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7513B3-B1E1-406E-9005-63269AD0BC02}">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -1843,7 +2700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0D1F3D-A7EE-4FCF-8CF0-27F32B531A35}">
   <dimension ref="A1:B34"/>
   <sheetViews>
@@ -2058,7 +2915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E5EADC-7AD0-4706-8CDC-029F92882FC7}">
   <dimension ref="A1:O34"/>
   <sheetViews>
@@ -2735,7 +3592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868D916C-2E78-4394-96BA-52ED6D3CD61B}">
   <dimension ref="A1:C34"/>
   <sheetViews>
@@ -2944,7 +3801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A022F9DB-BA49-4BD8-AE1C-0F8BD66EB712}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
@@ -3954,7 +4811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE61959-DAE3-4F7A-98F8-DD5B6C0C781D}">
   <dimension ref="A1:B34"/>
   <sheetViews>
@@ -4169,7 +5026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB8BA6C-AABB-4BE9-8B70-E041E86A3FE5}">
   <dimension ref="A1:B34"/>
   <sheetViews>
@@ -4390,7 +5247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9480FD5-83CE-4664-A02F-E2A743EFB2EE}">
   <dimension ref="A1:B34"/>
   <sheetViews>
@@ -4647,12 +5504,3626 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8E0DCB-62EE-4489-AB7C-7467B3092BC4}">
+  <dimension ref="A1:BX34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1">
+        <v>11</v>
+      </c>
+      <c r="C1">
+        <v>12</v>
+      </c>
+      <c r="D1">
+        <v>13</v>
+      </c>
+      <c r="E1">
+        <v>14</v>
+      </c>
+      <c r="F1">
+        <v>16</v>
+      </c>
+      <c r="G1">
+        <v>17</v>
+      </c>
+      <c r="H1">
+        <v>18</v>
+      </c>
+      <c r="I1">
+        <v>19</v>
+      </c>
+      <c r="J1">
+        <v>21</v>
+      </c>
+      <c r="K1">
+        <v>22</v>
+      </c>
+      <c r="L1">
+        <v>23</v>
+      </c>
+      <c r="M1">
+        <v>24</v>
+      </c>
+      <c r="N1">
+        <v>25</v>
+      </c>
+      <c r="O1">
+        <v>26</v>
+      </c>
+      <c r="P1">
+        <v>27</v>
+      </c>
+      <c r="Q1">
+        <v>28</v>
+      </c>
+      <c r="R1">
+        <v>29</v>
+      </c>
+      <c r="S1">
+        <v>30</v>
+      </c>
+      <c r="T1">
+        <v>32</v>
+      </c>
+      <c r="U1">
+        <v>33</v>
+      </c>
+      <c r="V1">
+        <v>34</v>
+      </c>
+      <c r="W1">
+        <v>35</v>
+      </c>
+      <c r="X1">
+        <v>36</v>
+      </c>
+      <c r="Y1">
+        <v>37</v>
+      </c>
+      <c r="Z1">
+        <v>38</v>
+      </c>
+      <c r="AA1">
+        <v>39</v>
+      </c>
+      <c r="AB1">
+        <v>40</v>
+      </c>
+      <c r="AC1">
+        <v>42</v>
+      </c>
+      <c r="AD1">
+        <v>43</v>
+      </c>
+      <c r="AE1">
+        <v>44</v>
+      </c>
+      <c r="AF1">
+        <v>45</v>
+      </c>
+      <c r="AG1">
+        <v>46</v>
+      </c>
+      <c r="AH1">
+        <v>47</v>
+      </c>
+      <c r="AI1">
+        <v>51</v>
+      </c>
+      <c r="AJ1">
+        <v>52</v>
+      </c>
+      <c r="AK1">
+        <v>1</v>
+      </c>
+      <c r="AL1">
+        <v>2</v>
+      </c>
+      <c r="AM1">
+        <v>3</v>
+      </c>
+      <c r="AN1">
+        <v>4</v>
+      </c>
+      <c r="AO1">
+        <v>5</v>
+      </c>
+      <c r="AP1">
+        <v>6</v>
+      </c>
+      <c r="AQ1">
+        <v>1</v>
+      </c>
+      <c r="AR1">
+        <v>2</v>
+      </c>
+      <c r="AS1">
+        <v>3</v>
+      </c>
+      <c r="AT1">
+        <v>4</v>
+      </c>
+      <c r="AU1">
+        <v>5</v>
+      </c>
+      <c r="AV1">
+        <v>6</v>
+      </c>
+      <c r="AW1">
+        <v>7</v>
+      </c>
+      <c r="AX1">
+        <v>1</v>
+      </c>
+      <c r="AY1">
+        <v>2</v>
+      </c>
+      <c r="AZ1">
+        <v>3</v>
+      </c>
+      <c r="BA1">
+        <v>4</v>
+      </c>
+      <c r="BB1">
+        <v>5</v>
+      </c>
+      <c r="BC1">
+        <v>6</v>
+      </c>
+      <c r="BD1">
+        <v>7</v>
+      </c>
+      <c r="BE1">
+        <v>8</v>
+      </c>
+      <c r="BF1">
+        <v>9</v>
+      </c>
+      <c r="BG1">
+        <v>10</v>
+      </c>
+      <c r="BH1">
+        <v>11</v>
+      </c>
+      <c r="BI1">
+        <v>12</v>
+      </c>
+      <c r="BJ1">
+        <v>13</v>
+      </c>
+      <c r="BK1">
+        <v>14</v>
+      </c>
+      <c r="BL1">
+        <v>15</v>
+      </c>
+      <c r="BM1">
+        <v>16</v>
+      </c>
+      <c r="BN1">
+        <v>1</v>
+      </c>
+      <c r="BO1">
+        <v>2</v>
+      </c>
+      <c r="BP1">
+        <v>3</v>
+      </c>
+      <c r="BQ1">
+        <v>4</v>
+      </c>
+      <c r="BR1">
+        <v>5</v>
+      </c>
+      <c r="BS1">
+        <v>6</v>
+      </c>
+      <c r="BT1">
+        <v>7</v>
+      </c>
+      <c r="BU1">
+        <v>8</v>
+      </c>
+      <c r="BV1">
+        <v>9</v>
+      </c>
+      <c r="BW1">
+        <v>10</v>
+      </c>
+      <c r="BX1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1">
+        <v>34750</v>
+      </c>
+      <c r="C2" s="1">
+        <v>34742</v>
+      </c>
+      <c r="D2" s="1">
+        <v>34779</v>
+      </c>
+      <c r="E2" s="1">
+        <v>34779</v>
+      </c>
+      <c r="F2" s="1">
+        <v>34750</v>
+      </c>
+      <c r="G2" s="1">
+        <v>34741</v>
+      </c>
+      <c r="H2" s="1">
+        <v>34744</v>
+      </c>
+      <c r="I2" s="1">
+        <v>34743</v>
+      </c>
+      <c r="J2" s="1">
+        <v>34717</v>
+      </c>
+      <c r="K2" s="1">
+        <v>34744</v>
+      </c>
+      <c r="L2" s="1">
+        <v>34723</v>
+      </c>
+      <c r="M2" s="1">
+        <v>34733</v>
+      </c>
+      <c r="N2" s="1">
+        <v>34735</v>
+      </c>
+      <c r="O2" s="1">
+        <v>34748</v>
+      </c>
+      <c r="P2" s="1">
+        <v>34750</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>34756</v>
+      </c>
+      <c r="R2" s="1">
+        <v>34748</v>
+      </c>
+      <c r="S2" s="1">
+        <v>34750</v>
+      </c>
+      <c r="T2" s="1">
+        <v>34750</v>
+      </c>
+      <c r="U2" s="1">
+        <v>34747</v>
+      </c>
+      <c r="V2" s="1">
+        <v>34719</v>
+      </c>
+      <c r="W2" s="1">
+        <v>34732</v>
+      </c>
+      <c r="X2" s="1">
+        <v>34724</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>34714</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>34718</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>34739</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>34739</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>34718</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>34745</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>34745</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>34723</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>34740</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>34738</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>34736</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>34756</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>41603</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>41603</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>41603</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>41606</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>41606</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>41603</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>41914</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>41914</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>41962</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>41962</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>42052</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>42068</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>42068</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>42622</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>34756</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>34753</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>34759</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>34756</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>34759</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>34759</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>34761</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>34753</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>34761</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>34756</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>33725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>450</v>
+      </c>
+      <c r="C3">
+        <v>11.7</v>
+      </c>
+      <c r="D3">
+        <v>230</v>
+      </c>
+      <c r="E3">
+        <v>290</v>
+      </c>
+      <c r="F3">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>2.7</v>
+      </c>
+      <c r="H3">
+        <v>3.5</v>
+      </c>
+      <c r="I3">
+        <v>2.7</v>
+      </c>
+      <c r="J3">
+        <v>3.4</v>
+      </c>
+      <c r="K3">
+        <v>10.4</v>
+      </c>
+      <c r="L3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M3">
+        <v>1.2</v>
+      </c>
+      <c r="N3">
+        <v>8.6</v>
+      </c>
+      <c r="O3">
+        <v>75</v>
+      </c>
+      <c r="P3">
+        <v>61</v>
+      </c>
+      <c r="Q3">
+        <v>700</v>
+      </c>
+      <c r="R3">
+        <v>18</v>
+      </c>
+      <c r="S3">
+        <v>27</v>
+      </c>
+      <c r="T3">
+        <v>205</v>
+      </c>
+      <c r="U3">
+        <v>40</v>
+      </c>
+      <c r="V3">
+        <v>0.01</v>
+      </c>
+      <c r="W3">
+        <v>0.06</v>
+      </c>
+      <c r="X3">
+        <v>0.02</v>
+      </c>
+      <c r="Z3">
+        <v>0.7</v>
+      </c>
+      <c r="AA3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB3">
+        <v>1.2</v>
+      </c>
+      <c r="AC3">
+        <v>1.2</v>
+      </c>
+      <c r="AD3">
+        <v>4.2</v>
+      </c>
+      <c r="AE3">
+        <v>0.8</v>
+      </c>
+      <c r="AG3">
+        <v>2.1</v>
+      </c>
+      <c r="AH3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AI3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AJ3">
+        <v>0.21</v>
+      </c>
+      <c r="BN3">
+        <v>0.4</v>
+      </c>
+      <c r="BO3">
+        <v>0.2</v>
+      </c>
+      <c r="BR3">
+        <v>2.6</v>
+      </c>
+      <c r="BS3">
+        <v>0.8</v>
+      </c>
+      <c r="BT3">
+        <v>0.09</v>
+      </c>
+      <c r="BU3">
+        <v>0.4</v>
+      </c>
+      <c r="BV3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>25000</v>
+      </c>
+      <c r="C5">
+        <v>640</v>
+      </c>
+      <c r="D5">
+        <v>26000</v>
+      </c>
+      <c r="E5">
+        <v>30000</v>
+      </c>
+      <c r="F5">
+        <v>2400</v>
+      </c>
+      <c r="G5">
+        <v>127</v>
+      </c>
+      <c r="H5">
+        <v>400</v>
+      </c>
+      <c r="I5">
+        <v>440</v>
+      </c>
+      <c r="J5">
+        <v>137</v>
+      </c>
+      <c r="K5">
+        <v>530</v>
+      </c>
+      <c r="L5">
+        <v>140</v>
+      </c>
+      <c r="M5">
+        <v>34</v>
+      </c>
+      <c r="N5">
+        <v>180</v>
+      </c>
+      <c r="O5">
+        <v>2300</v>
+      </c>
+      <c r="P5">
+        <v>1970</v>
+      </c>
+      <c r="Q5">
+        <v>44000</v>
+      </c>
+      <c r="R5">
+        <v>940</v>
+      </c>
+      <c r="S5">
+        <v>1920</v>
+      </c>
+      <c r="T5">
+        <v>10000</v>
+      </c>
+      <c r="U5">
+        <v>1500</v>
+      </c>
+      <c r="V5">
+        <v>0.47</v>
+      </c>
+      <c r="W5">
+        <v>3.4</v>
+      </c>
+      <c r="X5">
+        <v>0.47</v>
+      </c>
+      <c r="Y5">
+        <v>1.08</v>
+      </c>
+      <c r="Z5">
+        <v>69</v>
+      </c>
+      <c r="AA5">
+        <v>340</v>
+      </c>
+      <c r="AB5">
+        <v>207</v>
+      </c>
+      <c r="AC5">
+        <v>155</v>
+      </c>
+      <c r="AD5">
+        <v>420</v>
+      </c>
+      <c r="AE5">
+        <v>370</v>
+      </c>
+      <c r="AF5">
+        <v>28</v>
+      </c>
+      <c r="AG5">
+        <v>134</v>
+      </c>
+      <c r="AH5">
+        <v>144</v>
+      </c>
+      <c r="AI5">
+        <v>320</v>
+      </c>
+      <c r="AJ5">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AK5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AL5">
+        <v>69</v>
+      </c>
+      <c r="AM5">
+        <v>3.9</v>
+      </c>
+      <c r="AN5">
+        <v>43</v>
+      </c>
+      <c r="AO5">
+        <v>59</v>
+      </c>
+      <c r="AP5">
+        <v>1.3</v>
+      </c>
+      <c r="AQ5">
+        <v>10</v>
+      </c>
+      <c r="AR5">
+        <v>7.91</v>
+      </c>
+      <c r="AS5">
+        <v>2.25</v>
+      </c>
+      <c r="AT5">
+        <v>7.41</v>
+      </c>
+      <c r="AU5">
+        <v>6.2</v>
+      </c>
+      <c r="AV5">
+        <v>6.7</v>
+      </c>
+      <c r="AW5">
+        <v>11</v>
+      </c>
+      <c r="AX5">
+        <v>6.8</v>
+      </c>
+      <c r="AY5">
+        <v>3.2</v>
+      </c>
+      <c r="AZ5">
+        <v>2.4</v>
+      </c>
+      <c r="BA5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="BB5">
+        <v>8</v>
+      </c>
+      <c r="BC5">
+        <v>3.1</v>
+      </c>
+      <c r="BD5">
+        <v>0.18</v>
+      </c>
+      <c r="BE5">
+        <v>1.8</v>
+      </c>
+      <c r="BF5">
+        <v>7.9</v>
+      </c>
+      <c r="BG5">
+        <v>1.9</v>
+      </c>
+      <c r="BH5">
+        <v>2.59</v>
+      </c>
+      <c r="BI5">
+        <v>10.1</v>
+      </c>
+      <c r="BJ5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="BK5">
+        <v>2.73</v>
+      </c>
+      <c r="BL5">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="BM5">
+        <v>2.38</v>
+      </c>
+      <c r="BN5">
+        <v>310</v>
+      </c>
+      <c r="BO5">
+        <v>73</v>
+      </c>
+      <c r="BP5">
+        <v>71</v>
+      </c>
+      <c r="BQ5">
+        <v>23.4</v>
+      </c>
+      <c r="BR5">
+        <v>127</v>
+      </c>
+      <c r="BS5">
+        <v>47</v>
+      </c>
+      <c r="BT5">
+        <v>7.8</v>
+      </c>
+      <c r="BU5">
+        <v>71</v>
+      </c>
+      <c r="BV5">
+        <v>370</v>
+      </c>
+      <c r="BW5">
+        <v>4100</v>
+      </c>
+      <c r="BX5">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>0.8</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>26</v>
+      </c>
+      <c r="G7">
+        <v>0.3</v>
+      </c>
+      <c r="H7">
+        <v>0.6</v>
+      </c>
+      <c r="I7">
+        <v>0.3</v>
+      </c>
+      <c r="J7">
+        <v>0.2</v>
+      </c>
+      <c r="K7">
+        <v>0.2</v>
+      </c>
+      <c r="Q7">
+        <v>50</v>
+      </c>
+      <c r="R7">
+        <v>0.4</v>
+      </c>
+      <c r="S7">
+        <v>1.3</v>
+      </c>
+      <c r="T7">
+        <v>2.7</v>
+      </c>
+      <c r="U7">
+        <v>1.6</v>
+      </c>
+      <c r="AA7">
+        <v>0.5</v>
+      </c>
+      <c r="AB7">
+        <v>0.27</v>
+      </c>
+      <c r="AC7">
+        <v>0.2</v>
+      </c>
+      <c r="AD7">
+        <v>0.5</v>
+      </c>
+      <c r="AE7">
+        <v>0.5</v>
+      </c>
+      <c r="AG7">
+        <v>0.3</v>
+      </c>
+      <c r="AL7">
+        <v>0.52</v>
+      </c>
+      <c r="AN7">
+        <v>0.27</v>
+      </c>
+      <c r="AO7">
+        <v>0.45</v>
+      </c>
+      <c r="AQ7">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="AS7">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AV7">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="AW7">
+        <v>0.37</v>
+      </c>
+      <c r="AX7">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="BA7">
+        <v>0.12</v>
+      </c>
+      <c r="BB7">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="BF7">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="BG7">
+        <v>3.1E-2</v>
+      </c>
+      <c r="BH7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="BI7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="BJ7">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="BK7">
+        <v>0.04</v>
+      </c>
+      <c r="BM7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="BN7">
+        <v>0.6</v>
+      </c>
+      <c r="BO7">
+        <v>0.17</v>
+      </c>
+      <c r="BS7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BU7">
+        <v>0.1</v>
+      </c>
+      <c r="BW7">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9">
+        <v>3.2</v>
+      </c>
+      <c r="G9">
+        <v>1.9</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <v>3.4</v>
+      </c>
+      <c r="N9">
+        <v>0.3</v>
+      </c>
+      <c r="O9">
+        <v>44</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1.5</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="Z9">
+        <v>0.17</v>
+      </c>
+      <c r="AA9">
+        <v>4.2</v>
+      </c>
+      <c r="AB9">
+        <v>7.1</v>
+      </c>
+      <c r="AC9">
+        <v>0.6</v>
+      </c>
+      <c r="AD9">
+        <v>2.9</v>
+      </c>
+      <c r="AE9">
+        <v>0.7</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>3.1E-2</v>
+      </c>
+      <c r="AL9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AM9">
+        <v>7.8E-2</v>
+      </c>
+      <c r="AN9">
+        <v>0.82</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="AQ9">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="AR9">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AT9">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="AU9">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AV9">
+        <v>0.13</v>
+      </c>
+      <c r="AW9">
+        <v>0.35</v>
+      </c>
+      <c r="AX9">
+        <v>0.47</v>
+      </c>
+      <c r="AY9">
+        <v>0.1</v>
+      </c>
+      <c r="AZ9">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="BA9">
+        <v>0.61</v>
+      </c>
+      <c r="BB9">
+        <v>0.38</v>
+      </c>
+      <c r="BC9">
+        <v>0.16</v>
+      </c>
+      <c r="BE9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BF9">
+        <v>0.74</v>
+      </c>
+      <c r="BG9">
+        <v>0.16</v>
+      </c>
+      <c r="BH9">
+        <v>0.13</v>
+      </c>
+      <c r="BI9">
+        <v>1</v>
+      </c>
+      <c r="BJ9">
+        <v>0.68</v>
+      </c>
+      <c r="BK9">
+        <v>0.22</v>
+      </c>
+      <c r="BL9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="BM9">
+        <v>0.15</v>
+      </c>
+      <c r="BO9">
+        <v>0.54</v>
+      </c>
+      <c r="BX9">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>1.3</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>61</v>
+      </c>
+      <c r="I10">
+        <v>21</v>
+      </c>
+      <c r="N10">
+        <v>2.6</v>
+      </c>
+      <c r="O10">
+        <v>131</v>
+      </c>
+      <c r="P10">
+        <v>20</v>
+      </c>
+      <c r="R10">
+        <v>3.1</v>
+      </c>
+      <c r="S10">
+        <v>2.1</v>
+      </c>
+      <c r="T10">
+        <v>10</v>
+      </c>
+      <c r="U10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z10">
+        <v>0.5</v>
+      </c>
+      <c r="AA10">
+        <v>9</v>
+      </c>
+      <c r="AD10">
+        <v>2.6</v>
+      </c>
+      <c r="AI10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BX10">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>140</v>
+      </c>
+      <c r="C11">
+        <v>2.1</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.6</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>12</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <v>8</v>
+      </c>
+      <c r="U11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AH11">
+        <v>0.8</v>
+      </c>
+      <c r="BQ11">
+        <v>0.4</v>
+      </c>
+      <c r="BR11">
+        <v>0.6</v>
+      </c>
+      <c r="BS11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>4.3</v>
+      </c>
+      <c r="H12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>5.5</v>
+      </c>
+      <c r="L12">
+        <v>0.7</v>
+      </c>
+      <c r="M12">
+        <v>0.8</v>
+      </c>
+      <c r="N12">
+        <v>3.2</v>
+      </c>
+      <c r="O12">
+        <v>2.4</v>
+      </c>
+      <c r="P12">
+        <v>81</v>
+      </c>
+      <c r="W12">
+        <v>0.05</v>
+      </c>
+      <c r="Y12">
+        <v>0.04</v>
+      </c>
+      <c r="Z12">
+        <v>2.4</v>
+      </c>
+      <c r="AB12">
+        <v>1.3</v>
+      </c>
+      <c r="AC12">
+        <v>2.7</v>
+      </c>
+      <c r="AD12">
+        <v>3.5</v>
+      </c>
+      <c r="AE12">
+        <v>0.7</v>
+      </c>
+      <c r="AF12">
+        <v>0.2</v>
+      </c>
+      <c r="AH12">
+        <v>3.5</v>
+      </c>
+      <c r="AI12">
+        <v>6.4</v>
+      </c>
+      <c r="BR12">
+        <v>0.7</v>
+      </c>
+      <c r="BT12">
+        <v>0.05</v>
+      </c>
+      <c r="BV12">
+        <v>0.3</v>
+      </c>
+      <c r="BX12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>0.7</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>18.5</v>
+      </c>
+      <c r="H13">
+        <v>5.3</v>
+      </c>
+      <c r="I13">
+        <v>25</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <v>27</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N13">
+        <v>10.8</v>
+      </c>
+      <c r="O13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P13">
+        <v>280</v>
+      </c>
+      <c r="Q13">
+        <v>170</v>
+      </c>
+      <c r="S13">
+        <v>10.5</v>
+      </c>
+      <c r="T13">
+        <v>26</v>
+      </c>
+      <c r="U13">
+        <v>1.4</v>
+      </c>
+      <c r="V13">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="W13">
+        <v>0.21</v>
+      </c>
+      <c r="X13">
+        <v>0.03</v>
+      </c>
+      <c r="Y13">
+        <v>0.12</v>
+      </c>
+      <c r="Z13">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AA13">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AB13">
+        <v>25</v>
+      </c>
+      <c r="AC13">
+        <v>23</v>
+      </c>
+      <c r="AD13">
+        <v>104</v>
+      </c>
+      <c r="AE13">
+        <v>35</v>
+      </c>
+      <c r="AF13">
+        <v>0.7</v>
+      </c>
+      <c r="AG13">
+        <v>5</v>
+      </c>
+      <c r="AI13">
+        <v>25</v>
+      </c>
+      <c r="AJ13">
+        <v>0.11</v>
+      </c>
+      <c r="AK13">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AL13">
+        <v>76</v>
+      </c>
+      <c r="AM13">
+        <v>8.5</v>
+      </c>
+      <c r="AN13">
+        <v>84</v>
+      </c>
+      <c r="AO13">
+        <v>73</v>
+      </c>
+      <c r="AP13">
+        <v>3</v>
+      </c>
+      <c r="AQ13">
+        <v>10.8</v>
+      </c>
+      <c r="AR13">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="AS13">
+        <v>23.3</v>
+      </c>
+      <c r="AT13">
+        <v>238</v>
+      </c>
+      <c r="AU13">
+        <v>80</v>
+      </c>
+      <c r="AV13">
+        <v>550</v>
+      </c>
+      <c r="AW13">
+        <v>87</v>
+      </c>
+      <c r="AX13">
+        <v>12</v>
+      </c>
+      <c r="AY13">
+        <v>4.7</v>
+      </c>
+      <c r="AZ13">
+        <v>2.7</v>
+      </c>
+      <c r="BA13">
+        <v>12</v>
+      </c>
+      <c r="BB13">
+        <v>11</v>
+      </c>
+      <c r="BC13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="BD13">
+        <v>2.9</v>
+      </c>
+      <c r="BE13">
+        <v>1.4</v>
+      </c>
+      <c r="BF13">
+        <v>14.6</v>
+      </c>
+      <c r="BG13">
+        <v>5.31</v>
+      </c>
+      <c r="BH13">
+        <v>3.31</v>
+      </c>
+      <c r="BI13">
+        <v>14.8</v>
+      </c>
+      <c r="BJ13">
+        <v>13.4</v>
+      </c>
+      <c r="BK13">
+        <v>4.29</v>
+      </c>
+      <c r="BL13">
+        <v>3.39</v>
+      </c>
+      <c r="BM13">
+        <v>1.98</v>
+      </c>
+      <c r="BN13">
+        <v>0.3</v>
+      </c>
+      <c r="BO13">
+        <v>1.67</v>
+      </c>
+      <c r="BP13">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="BQ13">
+        <v>9.6</v>
+      </c>
+      <c r="BR13">
+        <v>3</v>
+      </c>
+      <c r="BS13">
+        <v>0.31</v>
+      </c>
+      <c r="BT13">
+        <v>0.59</v>
+      </c>
+      <c r="BU13">
+        <v>0.79</v>
+      </c>
+      <c r="BV13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BW13">
+        <v>430</v>
+      </c>
+      <c r="BX13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0.9</v>
+      </c>
+      <c r="BU16">
+        <v>0.3</v>
+      </c>
+      <c r="BX16">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="BO17">
+        <v>0.15</v>
+      </c>
+      <c r="BQ17">
+        <v>0.2</v>
+      </c>
+      <c r="BU17">
+        <v>0.4</v>
+      </c>
+      <c r="BX17">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="T18">
+        <v>4</v>
+      </c>
+      <c r="Z18">
+        <v>0.1</v>
+      </c>
+      <c r="BO18">
+        <v>0.2</v>
+      </c>
+      <c r="BX18">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>5920</v>
+      </c>
+      <c r="C19">
+        <v>367</v>
+      </c>
+      <c r="D19">
+        <v>46400</v>
+      </c>
+      <c r="E19">
+        <v>47400</v>
+      </c>
+      <c r="F19">
+        <v>5130</v>
+      </c>
+      <c r="G19">
+        <v>616</v>
+      </c>
+      <c r="H19">
+        <v>640</v>
+      </c>
+      <c r="I19">
+        <v>843</v>
+      </c>
+      <c r="J19">
+        <v>384</v>
+      </c>
+      <c r="K19">
+        <v>1590</v>
+      </c>
+      <c r="L19">
+        <v>563</v>
+      </c>
+      <c r="M19">
+        <v>41.9</v>
+      </c>
+      <c r="N19">
+        <v>728</v>
+      </c>
+      <c r="O19">
+        <v>7950</v>
+      </c>
+      <c r="P19">
+        <v>7920</v>
+      </c>
+      <c r="Q19">
+        <v>206000</v>
+      </c>
+      <c r="R19">
+        <v>1880</v>
+      </c>
+      <c r="S19">
+        <v>5030</v>
+      </c>
+      <c r="T19">
+        <v>23700</v>
+      </c>
+      <c r="U19">
+        <v>3980</v>
+      </c>
+      <c r="V19">
+        <v>1.01</v>
+      </c>
+      <c r="W19">
+        <v>9.9</v>
+      </c>
+      <c r="X19">
+        <v>1.21</v>
+      </c>
+      <c r="Y19">
+        <v>1.21</v>
+      </c>
+      <c r="Z19">
+        <v>182</v>
+      </c>
+      <c r="AA19">
+        <v>895</v>
+      </c>
+      <c r="AB19">
+        <v>527</v>
+      </c>
+      <c r="AC19">
+        <v>444</v>
+      </c>
+      <c r="AD19">
+        <v>1090</v>
+      </c>
+      <c r="AE19">
+        <v>1290</v>
+      </c>
+      <c r="AF19">
+        <v>43.2</v>
+      </c>
+      <c r="AG19">
+        <v>179</v>
+      </c>
+      <c r="AH19">
+        <v>189</v>
+      </c>
+      <c r="AI19">
+        <v>638</v>
+      </c>
+      <c r="AJ19">
+        <v>43.2</v>
+      </c>
+      <c r="AK19">
+        <v>0.66</v>
+      </c>
+      <c r="AL19">
+        <v>25</v>
+      </c>
+      <c r="AM19">
+        <v>1.8</v>
+      </c>
+      <c r="AN19">
+        <v>13</v>
+      </c>
+      <c r="AO19">
+        <v>16</v>
+      </c>
+      <c r="AP19">
+        <v>0.42</v>
+      </c>
+      <c r="AQ19">
+        <v>5.6</v>
+      </c>
+      <c r="AR19">
+        <v>5.9</v>
+      </c>
+      <c r="AS19">
+        <v>0.68</v>
+      </c>
+      <c r="AT19">
+        <v>4.3</v>
+      </c>
+      <c r="AU19">
+        <v>4.3</v>
+      </c>
+      <c r="AV19">
+        <v>2.5</v>
+      </c>
+      <c r="AW19">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AX19">
+        <v>2.7</v>
+      </c>
+      <c r="AY19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AZ19">
+        <v>2.8</v>
+      </c>
+      <c r="BA19">
+        <v>3.8</v>
+      </c>
+      <c r="BB19">
+        <v>2.1</v>
+      </c>
+      <c r="BC19">
+        <v>1.2</v>
+      </c>
+      <c r="BD19">
+        <v>1.7</v>
+      </c>
+      <c r="BE19">
+        <v>0.15</v>
+      </c>
+      <c r="BF19">
+        <v>2.7</v>
+      </c>
+      <c r="BG19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BH19">
+        <v>2.8</v>
+      </c>
+      <c r="BI19">
+        <v>3.8</v>
+      </c>
+      <c r="BJ19">
+        <v>2.1</v>
+      </c>
+      <c r="BK19">
+        <v>1.2</v>
+      </c>
+      <c r="BL19">
+        <v>1.7</v>
+      </c>
+      <c r="BM19">
+        <v>0.15</v>
+      </c>
+      <c r="BN19">
+        <v>830</v>
+      </c>
+      <c r="BO19">
+        <v>207</v>
+      </c>
+      <c r="BP19">
+        <v>255</v>
+      </c>
+      <c r="BQ19">
+        <v>43.2</v>
+      </c>
+      <c r="BR19">
+        <v>186</v>
+      </c>
+      <c r="BS19">
+        <v>157</v>
+      </c>
+      <c r="BT19">
+        <v>22.5</v>
+      </c>
+      <c r="BU19">
+        <v>315</v>
+      </c>
+      <c r="BV19">
+        <v>793</v>
+      </c>
+      <c r="BW19">
+        <v>3340</v>
+      </c>
+      <c r="BX19">
+        <v>77.209999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>800</v>
+      </c>
+      <c r="C20">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>20000</v>
+      </c>
+      <c r="E20">
+        <v>26200</v>
+      </c>
+      <c r="F20">
+        <v>860</v>
+      </c>
+      <c r="G20">
+        <v>75</v>
+      </c>
+      <c r="H20">
+        <v>227</v>
+      </c>
+      <c r="I20">
+        <v>281</v>
+      </c>
+      <c r="J20">
+        <v>45</v>
+      </c>
+      <c r="K20">
+        <v>204</v>
+      </c>
+      <c r="L20">
+        <v>49</v>
+      </c>
+      <c r="M20">
+        <v>3.5</v>
+      </c>
+      <c r="N20">
+        <v>84</v>
+      </c>
+      <c r="O20">
+        <v>1020</v>
+      </c>
+      <c r="P20">
+        <v>440</v>
+      </c>
+      <c r="Q20">
+        <v>22500</v>
+      </c>
+      <c r="R20">
+        <v>135</v>
+      </c>
+      <c r="S20">
+        <v>610</v>
+      </c>
+      <c r="T20">
+        <v>1370</v>
+      </c>
+      <c r="U20">
+        <v>540</v>
+      </c>
+      <c r="V20">
+        <v>0.13</v>
+      </c>
+      <c r="W20">
+        <v>0.9</v>
+      </c>
+      <c r="X20">
+        <v>0.15</v>
+      </c>
+      <c r="Y20">
+        <v>0.13</v>
+      </c>
+      <c r="Z20">
+        <v>20</v>
+      </c>
+      <c r="AA20">
+        <v>220</v>
+      </c>
+      <c r="AB20">
+        <v>100</v>
+      </c>
+      <c r="AC20">
+        <v>68</v>
+      </c>
+      <c r="AD20">
+        <v>280</v>
+      </c>
+      <c r="AE20">
+        <v>180</v>
+      </c>
+      <c r="AF20">
+        <v>3.4</v>
+      </c>
+      <c r="AG20">
+        <v>6.9</v>
+      </c>
+      <c r="AH20">
+        <v>31</v>
+      </c>
+      <c r="AI20">
+        <v>49</v>
+      </c>
+      <c r="AJ20">
+        <v>29</v>
+      </c>
+      <c r="AK20">
+        <v>10</v>
+      </c>
+      <c r="AL20">
+        <v>430</v>
+      </c>
+      <c r="AM20">
+        <v>25</v>
+      </c>
+      <c r="AN20">
+        <v>200</v>
+      </c>
+      <c r="AO20">
+        <v>260</v>
+      </c>
+      <c r="AP20">
+        <v>9.5</v>
+      </c>
+      <c r="AQ20">
+        <v>180</v>
+      </c>
+      <c r="AR20">
+        <v>47</v>
+      </c>
+      <c r="AS20">
+        <v>13</v>
+      </c>
+      <c r="AT20">
+        <v>60</v>
+      </c>
+      <c r="AU20">
+        <v>70</v>
+      </c>
+      <c r="AV20">
+        <v>41</v>
+      </c>
+      <c r="AW20">
+        <v>32</v>
+      </c>
+      <c r="AX20">
+        <v>79</v>
+      </c>
+      <c r="AY20">
+        <v>29</v>
+      </c>
+      <c r="AZ20">
+        <v>13</v>
+      </c>
+      <c r="BA20">
+        <v>72</v>
+      </c>
+      <c r="BB20">
+        <v>60</v>
+      </c>
+      <c r="BC20">
+        <v>23</v>
+      </c>
+      <c r="BD20">
+        <v>14</v>
+      </c>
+      <c r="BE20">
+        <v>2.5</v>
+      </c>
+      <c r="BF20">
+        <v>79</v>
+      </c>
+      <c r="BG20">
+        <v>29</v>
+      </c>
+      <c r="BH20">
+        <v>13</v>
+      </c>
+      <c r="BI20">
+        <v>72</v>
+      </c>
+      <c r="BJ20">
+        <v>60</v>
+      </c>
+      <c r="BK20">
+        <v>23</v>
+      </c>
+      <c r="BL20">
+        <v>14</v>
+      </c>
+      <c r="BM20">
+        <v>2.5</v>
+      </c>
+      <c r="BN20">
+        <v>215</v>
+      </c>
+      <c r="BO20">
+        <v>69</v>
+      </c>
+      <c r="BP20">
+        <v>54</v>
+      </c>
+      <c r="BQ20">
+        <v>24</v>
+      </c>
+      <c r="BR20">
+        <v>23</v>
+      </c>
+      <c r="BS20">
+        <v>24</v>
+      </c>
+      <c r="BT20">
+        <v>8.6</v>
+      </c>
+      <c r="BU20">
+        <v>67</v>
+      </c>
+      <c r="BV20">
+        <v>426</v>
+      </c>
+      <c r="BW20">
+        <v>3540</v>
+      </c>
+      <c r="BX20">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21">
+        <v>11.9</v>
+      </c>
+      <c r="C21">
+        <v>0.37</v>
+      </c>
+      <c r="D21">
+        <v>1.2</v>
+      </c>
+      <c r="E21">
+        <v>1.3</v>
+      </c>
+      <c r="F21">
+        <v>0.24</v>
+      </c>
+      <c r="G21">
+        <v>0.23</v>
+      </c>
+      <c r="H21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I21">
+        <v>1.7</v>
+      </c>
+      <c r="J21">
+        <v>0.4</v>
+      </c>
+      <c r="K21">
+        <v>0.27</v>
+      </c>
+      <c r="L21">
+        <v>0.21</v>
+      </c>
+      <c r="N21">
+        <v>0.35</v>
+      </c>
+      <c r="O21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P21">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="Q21">
+        <v>39.9</v>
+      </c>
+      <c r="R21">
+        <v>0.04</v>
+      </c>
+      <c r="S21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T21">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="U21">
+        <v>0.12</v>
+      </c>
+      <c r="Z21">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AA21">
+        <v>2.1</v>
+      </c>
+      <c r="AB21">
+        <v>1.4</v>
+      </c>
+      <c r="AC21">
+        <v>1.3</v>
+      </c>
+      <c r="AD21">
+        <v>1.4</v>
+      </c>
+      <c r="AE21">
+        <v>3.2</v>
+      </c>
+      <c r="AG21">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="AH21">
+        <v>0.03</v>
+      </c>
+      <c r="AI21">
+        <v>0.34</v>
+      </c>
+      <c r="AK21">
+        <v>0.33</v>
+      </c>
+      <c r="AL21">
+        <v>5.4</v>
+      </c>
+      <c r="AM21">
+        <v>0.39</v>
+      </c>
+      <c r="AN21">
+        <v>3.2</v>
+      </c>
+      <c r="AO21">
+        <v>5.5</v>
+      </c>
+      <c r="AP21">
+        <v>0.3</v>
+      </c>
+      <c r="AQ21">
+        <v>1.4</v>
+      </c>
+      <c r="AR21">
+        <v>0.27</v>
+      </c>
+      <c r="AS21">
+        <v>0.6</v>
+      </c>
+      <c r="AT21">
+        <v>2.7</v>
+      </c>
+      <c r="AU21">
+        <v>3.1</v>
+      </c>
+      <c r="AV21">
+        <v>0.31</v>
+      </c>
+      <c r="AW21">
+        <v>1.2</v>
+      </c>
+      <c r="AX21">
+        <v>0.42</v>
+      </c>
+      <c r="AY21">
+        <v>0.12</v>
+      </c>
+      <c r="AZ21">
+        <v>0.12</v>
+      </c>
+      <c r="BA21">
+        <v>0.37</v>
+      </c>
+      <c r="BB21">
+        <v>0.35</v>
+      </c>
+      <c r="BC21">
+        <v>0.41</v>
+      </c>
+      <c r="BF21">
+        <v>0.42</v>
+      </c>
+      <c r="BG21">
+        <v>0.12</v>
+      </c>
+      <c r="BH21">
+        <v>0.12</v>
+      </c>
+      <c r="BI21">
+        <v>0.37</v>
+      </c>
+      <c r="BJ21">
+        <v>0.35</v>
+      </c>
+      <c r="BK21">
+        <v>0.41</v>
+      </c>
+      <c r="BN21">
+        <v>0.18</v>
+      </c>
+      <c r="BO21">
+        <v>0.3</v>
+      </c>
+      <c r="BP21">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="BQ21">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="BR21">
+        <v>4.99E-2</v>
+      </c>
+      <c r="BS21">
+        <v>0.15</v>
+      </c>
+      <c r="BT21">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="BU21">
+        <v>0.18</v>
+      </c>
+      <c r="BV21">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="BW21">
+        <v>11.3</v>
+      </c>
+      <c r="BX21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="N22">
+        <v>0.01</v>
+      </c>
+      <c r="P22">
+        <v>0.05</v>
+      </c>
+      <c r="AA22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AB22">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AC22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AD22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AE22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AG22">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="AH22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AI22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AK22">
+        <v>0.04</v>
+      </c>
+      <c r="AL22">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AM22">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="AN22">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AO22">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AP22">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="AQ22">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR22">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="AS22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AT22">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="AU22">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AV22">
+        <v>0.03</v>
+      </c>
+      <c r="AW22">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="AX22">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AY22">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AZ22">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="BA22">
+        <v>2.3E-2</v>
+      </c>
+      <c r="BB22">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="BC22">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="BD22">
+        <v>2.4E-2</v>
+      </c>
+      <c r="BE22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="BF22">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="BG22">
+        <v>1.9E-2</v>
+      </c>
+      <c r="BH22">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="BI22">
+        <v>2.3E-2</v>
+      </c>
+      <c r="BJ22">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="BK22">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="BL22">
+        <v>2.4E-2</v>
+      </c>
+      <c r="BM22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="BN22">
+        <v>0.21</v>
+      </c>
+      <c r="BO22">
+        <v>0.05</v>
+      </c>
+      <c r="BP22">
+        <v>0.11</v>
+      </c>
+      <c r="BQ22">
+        <v>0.08</v>
+      </c>
+      <c r="BS22">
+        <v>0.01</v>
+      </c>
+      <c r="BT22">
+        <v>3.9E-2</v>
+      </c>
+      <c r="BU22">
+        <v>1.9E-2</v>
+      </c>
+      <c r="BV22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="BW22">
+        <v>0.02</v>
+      </c>
+      <c r="BX22">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H23">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K23">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="P23">
+        <v>0.02</v>
+      </c>
+      <c r="AA23">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AB23">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AC23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AD23">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AE23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AG23">
+        <v>2.3E-3</v>
+      </c>
+      <c r="AH23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AI23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AK23">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="AL23">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="AM23">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AN23">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AO23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AP23">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="AQ23">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AR23">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AS23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AT23">
+        <v>3.3E-3</v>
+      </c>
+      <c r="AU23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AV23">
+        <v>3.9E-2</v>
+      </c>
+      <c r="AW23">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="AX23">
+        <v>2.7E-2</v>
+      </c>
+      <c r="AY23">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AZ23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="BA23">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="BB23">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="BC23">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="BD23">
+        <v>2.4E-2</v>
+      </c>
+      <c r="BE23">
+        <v>1.2E-2</v>
+      </c>
+      <c r="BF23">
+        <v>2.7E-2</v>
+      </c>
+      <c r="BG23">
+        <v>1.9E-2</v>
+      </c>
+      <c r="BH23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="BI23">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="BJ23">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="BK23">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="BL23">
+        <v>2.4E-2</v>
+      </c>
+      <c r="BM23">
+        <v>1.2E-2</v>
+      </c>
+      <c r="BN23">
+        <v>0.02</v>
+      </c>
+      <c r="BO23">
+        <v>0.04</v>
+      </c>
+      <c r="BP23">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BQ23">
+        <v>0.08</v>
+      </c>
+      <c r="BS23">
+        <v>0.01</v>
+      </c>
+      <c r="BT23">
+        <v>0.04</v>
+      </c>
+      <c r="BU23">
+        <v>1.6E-2</v>
+      </c>
+      <c r="BV23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="BW23">
+        <v>2.3E-2</v>
+      </c>
+      <c r="BX23">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK24">
+        <v>2E-3</v>
+      </c>
+      <c r="AL24">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AM24">
+        <v>2E-3</v>
+      </c>
+      <c r="AP24">
+        <v>2.8E-3</v>
+      </c>
+      <c r="BX24">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25">
+        <v>10.6</v>
+      </c>
+      <c r="C25">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="E25">
+        <v>2.8</v>
+      </c>
+      <c r="F25">
+        <v>0.44</v>
+      </c>
+      <c r="G25">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H25">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="I25">
+        <v>1.48</v>
+      </c>
+      <c r="J25">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K25">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L25">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="N25">
+        <v>0.08</v>
+      </c>
+      <c r="P25">
+        <v>0.2</v>
+      </c>
+      <c r="Q25">
+        <v>33</v>
+      </c>
+      <c r="S25">
+        <v>1.7</v>
+      </c>
+      <c r="T25">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U25">
+        <v>0.11</v>
+      </c>
+      <c r="Z25">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AA25">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AB25">
+        <v>0.27</v>
+      </c>
+      <c r="AC25">
+        <v>0.23</v>
+      </c>
+      <c r="AD25">
+        <v>0.16</v>
+      </c>
+      <c r="AE25">
+        <v>0.84</v>
+      </c>
+      <c r="AG25">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="AH25">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AJ25">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AK25">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="AL25">
+        <v>0.24</v>
+      </c>
+      <c r="AM25">
+        <v>6.2E-2</v>
+      </c>
+      <c r="AN25">
+        <v>0.62</v>
+      </c>
+      <c r="AO25">
+        <v>1.2</v>
+      </c>
+      <c r="AP25">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="AQ25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AR25">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AS25">
+        <v>0.13</v>
+      </c>
+      <c r="AT25">
+        <v>0.15</v>
+      </c>
+      <c r="AU25">
+        <v>0.23</v>
+      </c>
+      <c r="AV25">
+        <v>3.9E-2</v>
+      </c>
+      <c r="AW25">
+        <v>0.2</v>
+      </c>
+      <c r="AX25">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="AY25">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AZ25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="BA25">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="BB25">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="BC25">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="BE25">
+        <v>3.8E-3</v>
+      </c>
+      <c r="BF25">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="BG25">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="BH25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="BI25">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="BJ25">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="BK25">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="BM25">
+        <v>3.8E-3</v>
+      </c>
+      <c r="BN25">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="BO25">
+        <v>0.16</v>
+      </c>
+      <c r="BP25">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="BQ25">
+        <v>0.13</v>
+      </c>
+      <c r="BS25">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="BT25">
+        <v>1.4E-2</v>
+      </c>
+      <c r="BU25">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="BV25">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="BW25">
+        <v>7.1</v>
+      </c>
+      <c r="BX25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <v>10.3</v>
+      </c>
+      <c r="C26">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="E26">
+        <v>2.8</v>
+      </c>
+      <c r="F26">
+        <v>0.36</v>
+      </c>
+      <c r="G26">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H26">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="I26">
+        <v>1.07</v>
+      </c>
+      <c r="J26">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K26">
+        <v>2.3E-2</v>
+      </c>
+      <c r="L26">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="N26">
+        <v>0.09</v>
+      </c>
+      <c r="P26">
+        <v>0.26</v>
+      </c>
+      <c r="Q26">
+        <v>13.1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>4</v>
+      </c>
+      <c r="U26">
+        <v>0.13</v>
+      </c>
+      <c r="Z26">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AA26">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="AB26">
+        <v>0.11</v>
+      </c>
+      <c r="AC26">
+        <v>0.08</v>
+      </c>
+      <c r="AD26">
+        <v>0.11</v>
+      </c>
+      <c r="AE26">
+        <v>0.17</v>
+      </c>
+      <c r="AG26">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AH26">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI26">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AJ26">
+        <v>9.9900000000000006E-3</v>
+      </c>
+      <c r="AK26">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AL26">
+        <v>0.13</v>
+      </c>
+      <c r="AM26">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AN26">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AO26">
+        <v>0.5</v>
+      </c>
+      <c r="AP26">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AQ26">
+        <v>0.34</v>
+      </c>
+      <c r="AR26">
+        <v>0.04</v>
+      </c>
+      <c r="AS26">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AT26">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="AU26">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="AV26">
+        <v>0.03</v>
+      </c>
+      <c r="AW26">
+        <v>0.13</v>
+      </c>
+      <c r="AX26">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="BA26">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="BB26">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="BC26">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="BF26">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="BI26">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="BJ26">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="BK26">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="BN26">
+        <v>0.06</v>
+      </c>
+      <c r="BO26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BP26">
+        <v>3.9E-2</v>
+      </c>
+      <c r="BQ26">
+        <v>3.1E-2</v>
+      </c>
+      <c r="BS26">
+        <v>1.6E-2</v>
+      </c>
+      <c r="BT26">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="BU26">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="BV26">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="BW26">
+        <v>1.6</v>
+      </c>
+      <c r="BX26">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27">
+        <v>46.9</v>
+      </c>
+      <c r="C27">
+        <v>7.69</v>
+      </c>
+      <c r="D27">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="E27">
+        <v>114</v>
+      </c>
+      <c r="F27">
+        <v>15.5</v>
+      </c>
+      <c r="G27">
+        <v>1.24</v>
+      </c>
+      <c r="H27">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I27">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="J27">
+        <v>1.5</v>
+      </c>
+      <c r="K27">
+        <v>3.99</v>
+      </c>
+      <c r="L27">
+        <v>0.501</v>
+      </c>
+      <c r="N27">
+        <v>2.4</v>
+      </c>
+      <c r="O27">
+        <v>2.79</v>
+      </c>
+      <c r="P27">
+        <v>11.4</v>
+      </c>
+      <c r="Q27">
+        <v>538</v>
+      </c>
+      <c r="R27">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="S27">
+        <v>49.9</v>
+      </c>
+      <c r="T27">
+        <v>186</v>
+      </c>
+      <c r="U27">
+        <v>7.68</v>
+      </c>
+      <c r="Z27">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="AA27">
+        <v>3.3</v>
+      </c>
+      <c r="AB27">
+        <v>6.69</v>
+      </c>
+      <c r="AC27">
+        <v>6.34</v>
+      </c>
+      <c r="AD27">
+        <v>5.69</v>
+      </c>
+      <c r="AE27">
+        <v>12.3</v>
+      </c>
+      <c r="AG27">
+        <v>1.4</v>
+      </c>
+      <c r="AH27">
+        <v>0.32</v>
+      </c>
+      <c r="AI27">
+        <v>2.1</v>
+      </c>
+      <c r="AJ27">
+        <v>0.309</v>
+      </c>
+      <c r="AK27">
+        <v>0.72</v>
+      </c>
+      <c r="AL27">
+        <v>24</v>
+      </c>
+      <c r="AM27">
+        <v>3.1</v>
+      </c>
+      <c r="AN27">
+        <v>3.1</v>
+      </c>
+      <c r="AO27">
+        <v>15</v>
+      </c>
+      <c r="AP27">
+        <v>0.52</v>
+      </c>
+      <c r="AQ27">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AR27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AS27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AT27">
+        <v>3.8</v>
+      </c>
+      <c r="AU27">
+        <v>1.9</v>
+      </c>
+      <c r="AV27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AW27">
+        <v>3.3</v>
+      </c>
+      <c r="AX27">
+        <v>0.61</v>
+      </c>
+      <c r="AY27">
+        <v>0.12</v>
+      </c>
+      <c r="AZ27">
+        <v>0.18</v>
+      </c>
+      <c r="BA27">
+        <v>1.3</v>
+      </c>
+      <c r="BB27">
+        <v>0.63</v>
+      </c>
+      <c r="BC27">
+        <v>1</v>
+      </c>
+      <c r="BF27">
+        <v>0.61</v>
+      </c>
+      <c r="BG27">
+        <v>0.12</v>
+      </c>
+      <c r="BH27">
+        <v>0.18</v>
+      </c>
+      <c r="BI27">
+        <v>1.3</v>
+      </c>
+      <c r="BJ27">
+        <v>0.63</v>
+      </c>
+      <c r="BK27">
+        <v>1</v>
+      </c>
+      <c r="BN27">
+        <v>2.6</v>
+      </c>
+      <c r="BO27">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="BP27">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="BQ27">
+        <v>1.89</v>
+      </c>
+      <c r="BR27">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="BS27">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="BT27">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="BU27">
+        <v>1.36</v>
+      </c>
+      <c r="BW27">
+        <v>71.8</v>
+      </c>
+      <c r="BX27">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28">
+        <v>14.1</v>
+      </c>
+      <c r="C28">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="E28">
+        <v>5.52</v>
+      </c>
+      <c r="F28">
+        <v>0.441</v>
+      </c>
+      <c r="G28">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="H28">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="I28">
+        <v>1.26</v>
+      </c>
+      <c r="J28">
+        <v>5.2900000000000003E-2</v>
+      </c>
+      <c r="K28">
+        <v>0.08</v>
+      </c>
+      <c r="L28">
+        <v>3.1E-2</v>
+      </c>
+      <c r="N28">
+        <v>0.12</v>
+      </c>
+      <c r="P28">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="Q28">
+        <v>25.1</v>
+      </c>
+      <c r="S28">
+        <v>2.1</v>
+      </c>
+      <c r="T28">
+        <v>4.32</v>
+      </c>
+      <c r="U28">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="Z28">
+        <v>3.9E-2</v>
+      </c>
+      <c r="AA28">
+        <v>0.2</v>
+      </c>
+      <c r="AB28">
+        <v>0.42</v>
+      </c>
+      <c r="AC28">
+        <v>0.36</v>
+      </c>
+      <c r="AD28">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AE28">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="AG28">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="AH28">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AI28">
+        <v>0.1</v>
+      </c>
+      <c r="AJ28">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AK28">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="AL28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AM28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AN28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AO28">
+        <v>1.5</v>
+      </c>
+      <c r="AP28">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AQ28">
+        <v>2.1</v>
+      </c>
+      <c r="AR28">
+        <v>0.18</v>
+      </c>
+      <c r="AS28">
+        <v>0.16</v>
+      </c>
+      <c r="AT28">
+        <v>0.77</v>
+      </c>
+      <c r="AU28">
+        <v>0.23</v>
+      </c>
+      <c r="AV28">
+        <v>0.12</v>
+      </c>
+      <c r="AW28">
+        <v>0.49</v>
+      </c>
+      <c r="AX28">
+        <v>0.13</v>
+      </c>
+      <c r="AY28">
+        <v>3.9E-2</v>
+      </c>
+      <c r="AZ28">
+        <v>3.1E-2</v>
+      </c>
+      <c r="BA28">
+        <v>0.2</v>
+      </c>
+      <c r="BB28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="BC28">
+        <v>0.21</v>
+      </c>
+      <c r="BE28">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="BF28">
+        <v>0.13</v>
+      </c>
+      <c r="BG28">
+        <v>3.9E-2</v>
+      </c>
+      <c r="BH28">
+        <v>3.1E-2</v>
+      </c>
+      <c r="BI28">
+        <v>0.2</v>
+      </c>
+      <c r="BJ28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="BK28">
+        <v>0.21</v>
+      </c>
+      <c r="BM28">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="BN28">
+        <v>0.17</v>
+      </c>
+      <c r="BO28">
+        <v>0.43</v>
+      </c>
+      <c r="BP28">
+        <v>0.1</v>
+      </c>
+      <c r="BQ28">
+        <v>0.12</v>
+      </c>
+      <c r="BS28">
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="BT28">
+        <v>1.41E-2</v>
+      </c>
+      <c r="BU28">
+        <v>0.12</v>
+      </c>
+      <c r="BV28">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="BW28">
+        <v>6.41</v>
+      </c>
+      <c r="BX28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29">
+        <v>4.3899999999999998E-3</v>
+      </c>
+      <c r="H29">
+        <v>2.8400000000000001E-3</v>
+      </c>
+      <c r="U29">
+        <v>1.0300000000000001E-3</v>
+      </c>
+      <c r="AA29">
+        <v>6.7699999999999998E-4</v>
+      </c>
+      <c r="AB29">
+        <v>5.8E-4</v>
+      </c>
+      <c r="BX29">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30">
+        <v>7.88</v>
+      </c>
+      <c r="C30">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="E30">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="F30">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="G30">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H30">
+        <v>0.158</v>
+      </c>
+      <c r="I30">
+        <v>0.37</v>
+      </c>
+      <c r="J30">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K30">
+        <v>4.99E-2</v>
+      </c>
+      <c r="L30">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="N30">
+        <v>0.13</v>
+      </c>
+      <c r="P30">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="Q30">
+        <v>10.3</v>
+      </c>
+      <c r="S30">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="T30">
+        <v>2.1</v>
+      </c>
+      <c r="U30">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="Z30">
+        <v>8.0099999999999998E-3</v>
+      </c>
+      <c r="AA30">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="AB30">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AC30">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="AD30">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="AE30">
+        <v>0.11</v>
+      </c>
+      <c r="AG30">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AH30">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AI30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AJ30">
+        <v>5.9800000000000001E-3</v>
+      </c>
+      <c r="AL30">
+        <v>0.18</v>
+      </c>
+      <c r="AM30">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AN30">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="AO30">
+        <v>0.13</v>
+      </c>
+      <c r="AQ30">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="AR30">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="AS30">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="AT30">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="AU30">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="AV30">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="AW30">
+        <v>7.8E-2</v>
+      </c>
+      <c r="AX30">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="BA30">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="BB30">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="BC30">
+        <v>1.4E-2</v>
+      </c>
+      <c r="BF30">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="BI30">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="BJ30">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="BK30">
+        <v>1.4E-2</v>
+      </c>
+      <c r="BN30">
+        <v>0.02</v>
+      </c>
+      <c r="BO30">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="BP30">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="BQ30">
+        <v>1.6E-2</v>
+      </c>
+      <c r="BS30">
+        <v>9.9699999999999997E-3</v>
+      </c>
+      <c r="BT30">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="BU30">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="BV30">
+        <v>1.2E-2</v>
+      </c>
+      <c r="BW30">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="BX30">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="BX31">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="BX33">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36068FF-4AD0-49AA-9F55-1E7B4E8E7744}">
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4904,1806 +9375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216F679A-9BD8-4043-89D3-39CD60DB234B}">
-  <dimension ref="A1:AJ34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1">
-        <v>11</v>
-      </c>
-      <c r="C1">
-        <v>12</v>
-      </c>
-      <c r="D1">
-        <v>13</v>
-      </c>
-      <c r="E1">
-        <v>14</v>
-      </c>
-      <c r="F1">
-        <v>16</v>
-      </c>
-      <c r="G1">
-        <v>17</v>
-      </c>
-      <c r="H1">
-        <v>18</v>
-      </c>
-      <c r="I1">
-        <v>19</v>
-      </c>
-      <c r="J1">
-        <v>21</v>
-      </c>
-      <c r="K1">
-        <v>22</v>
-      </c>
-      <c r="L1">
-        <v>23</v>
-      </c>
-      <c r="M1">
-        <v>24</v>
-      </c>
-      <c r="N1">
-        <v>25</v>
-      </c>
-      <c r="O1">
-        <v>26</v>
-      </c>
-      <c r="P1">
-        <v>27</v>
-      </c>
-      <c r="Q1">
-        <v>28</v>
-      </c>
-      <c r="R1">
-        <v>29</v>
-      </c>
-      <c r="S1">
-        <v>30</v>
-      </c>
-      <c r="T1">
-        <v>32</v>
-      </c>
-      <c r="U1">
-        <v>33</v>
-      </c>
-      <c r="V1">
-        <v>34</v>
-      </c>
-      <c r="W1">
-        <v>35</v>
-      </c>
-      <c r="X1">
-        <v>36</v>
-      </c>
-      <c r="Y1">
-        <v>37</v>
-      </c>
-      <c r="Z1">
-        <v>38</v>
-      </c>
-      <c r="AA1">
-        <v>39</v>
-      </c>
-      <c r="AB1">
-        <v>40</v>
-      </c>
-      <c r="AC1">
-        <v>42</v>
-      </c>
-      <c r="AD1">
-        <v>43</v>
-      </c>
-      <c r="AE1">
-        <v>44</v>
-      </c>
-      <c r="AF1">
-        <v>45</v>
-      </c>
-      <c r="AG1">
-        <v>46</v>
-      </c>
-      <c r="AH1">
-        <v>47</v>
-      </c>
-      <c r="AI1">
-        <v>51</v>
-      </c>
-      <c r="AJ1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="1">
-        <v>34750</v>
-      </c>
-      <c r="C2" s="1">
-        <v>34742</v>
-      </c>
-      <c r="D2" s="1">
-        <v>34779</v>
-      </c>
-      <c r="E2" s="1">
-        <v>34779</v>
-      </c>
-      <c r="F2" s="1">
-        <v>34750</v>
-      </c>
-      <c r="G2" s="1">
-        <v>34741</v>
-      </c>
-      <c r="H2" s="1">
-        <v>34744</v>
-      </c>
-      <c r="I2" s="1">
-        <v>34743</v>
-      </c>
-      <c r="J2" s="1">
-        <v>34717</v>
-      </c>
-      <c r="K2" s="1">
-        <v>34744</v>
-      </c>
-      <c r="L2" s="1">
-        <v>34723</v>
-      </c>
-      <c r="M2" s="1">
-        <v>34733</v>
-      </c>
-      <c r="N2" s="1">
-        <v>34735</v>
-      </c>
-      <c r="O2" s="1">
-        <v>34748</v>
-      </c>
-      <c r="P2" s="1">
-        <v>34750</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>34756</v>
-      </c>
-      <c r="R2" s="1">
-        <v>34748</v>
-      </c>
-      <c r="S2" s="1">
-        <v>34750</v>
-      </c>
-      <c r="T2" s="1">
-        <v>34750</v>
-      </c>
-      <c r="U2" s="1">
-        <v>34747</v>
-      </c>
-      <c r="V2" s="1">
-        <v>34719</v>
-      </c>
-      <c r="W2" s="1">
-        <v>34732</v>
-      </c>
-      <c r="X2" s="1">
-        <v>34724</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>34714</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>34718</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>34739</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>34739</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>34718</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>34745</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>34745</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>34723</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>34740</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>34738</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>34736</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>34756</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3">
-        <v>450</v>
-      </c>
-      <c r="C3">
-        <v>11.7</v>
-      </c>
-      <c r="D3">
-        <v>230</v>
-      </c>
-      <c r="E3">
-        <v>290</v>
-      </c>
-      <c r="F3">
-        <v>17</v>
-      </c>
-      <c r="G3">
-        <v>2.7</v>
-      </c>
-      <c r="H3">
-        <v>3.5</v>
-      </c>
-      <c r="I3">
-        <v>2.7</v>
-      </c>
-      <c r="J3">
-        <v>3.4</v>
-      </c>
-      <c r="K3">
-        <v>10.4</v>
-      </c>
-      <c r="L3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="M3">
-        <v>1.2</v>
-      </c>
-      <c r="N3">
-        <v>8.6</v>
-      </c>
-      <c r="O3">
-        <v>75</v>
-      </c>
-      <c r="P3">
-        <v>61</v>
-      </c>
-      <c r="Q3">
-        <v>700</v>
-      </c>
-      <c r="R3">
-        <v>18</v>
-      </c>
-      <c r="S3">
-        <v>27</v>
-      </c>
-      <c r="T3">
-        <v>205</v>
-      </c>
-      <c r="U3">
-        <v>40</v>
-      </c>
-      <c r="V3">
-        <v>0.01</v>
-      </c>
-      <c r="W3">
-        <v>0.06</v>
-      </c>
-      <c r="X3">
-        <v>0.02</v>
-      </c>
-      <c r="Z3">
-        <v>0.7</v>
-      </c>
-      <c r="AA3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AB3">
-        <v>1.2</v>
-      </c>
-      <c r="AC3">
-        <v>1.2</v>
-      </c>
-      <c r="AD3">
-        <v>4.2</v>
-      </c>
-      <c r="AE3">
-        <v>0.8</v>
-      </c>
-      <c r="AG3">
-        <v>2.1</v>
-      </c>
-      <c r="AH3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AI3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AJ3">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5">
-        <v>25000</v>
-      </c>
-      <c r="C5">
-        <v>640</v>
-      </c>
-      <c r="D5">
-        <v>26000</v>
-      </c>
-      <c r="E5">
-        <v>30000</v>
-      </c>
-      <c r="F5">
-        <v>2400</v>
-      </c>
-      <c r="G5">
-        <v>127</v>
-      </c>
-      <c r="H5">
-        <v>400</v>
-      </c>
-      <c r="I5">
-        <v>440</v>
-      </c>
-      <c r="J5">
-        <v>137</v>
-      </c>
-      <c r="K5">
-        <v>530</v>
-      </c>
-      <c r="L5">
-        <v>140</v>
-      </c>
-      <c r="M5">
-        <v>34</v>
-      </c>
-      <c r="N5">
-        <v>180</v>
-      </c>
-      <c r="O5">
-        <v>2300</v>
-      </c>
-      <c r="P5">
-        <v>1970</v>
-      </c>
-      <c r="Q5">
-        <v>44000</v>
-      </c>
-      <c r="R5">
-        <v>940</v>
-      </c>
-      <c r="S5">
-        <v>1920</v>
-      </c>
-      <c r="T5">
-        <v>10000</v>
-      </c>
-      <c r="U5">
-        <v>1500</v>
-      </c>
-      <c r="V5">
-        <v>0.47</v>
-      </c>
-      <c r="W5">
-        <v>3.4</v>
-      </c>
-      <c r="X5">
-        <v>0.47</v>
-      </c>
-      <c r="Y5">
-        <v>1.08</v>
-      </c>
-      <c r="Z5">
-        <v>69</v>
-      </c>
-      <c r="AA5">
-        <v>340</v>
-      </c>
-      <c r="AB5">
-        <v>207</v>
-      </c>
-      <c r="AC5">
-        <v>155</v>
-      </c>
-      <c r="AD5">
-        <v>420</v>
-      </c>
-      <c r="AE5">
-        <v>370</v>
-      </c>
-      <c r="AF5">
-        <v>28</v>
-      </c>
-      <c r="AG5">
-        <v>134</v>
-      </c>
-      <c r="AH5">
-        <v>144</v>
-      </c>
-      <c r="AI5">
-        <v>320</v>
-      </c>
-      <c r="AJ5">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7">
-        <v>45</v>
-      </c>
-      <c r="C7">
-        <v>0.8</v>
-      </c>
-      <c r="D7">
-        <v>30</v>
-      </c>
-      <c r="E7">
-        <v>26</v>
-      </c>
-      <c r="G7">
-        <v>0.3</v>
-      </c>
-      <c r="H7">
-        <v>0.6</v>
-      </c>
-      <c r="I7">
-        <v>0.3</v>
-      </c>
-      <c r="J7">
-        <v>0.2</v>
-      </c>
-      <c r="K7">
-        <v>0.2</v>
-      </c>
-      <c r="Q7">
-        <v>50</v>
-      </c>
-      <c r="R7">
-        <v>0.4</v>
-      </c>
-      <c r="S7">
-        <v>1.3</v>
-      </c>
-      <c r="T7">
-        <v>2.7</v>
-      </c>
-      <c r="U7">
-        <v>1.6</v>
-      </c>
-      <c r="AA7">
-        <v>0.5</v>
-      </c>
-      <c r="AB7">
-        <v>0.27</v>
-      </c>
-      <c r="AC7">
-        <v>0.2</v>
-      </c>
-      <c r="AD7">
-        <v>0.5</v>
-      </c>
-      <c r="AE7">
-        <v>0.5</v>
-      </c>
-      <c r="AG7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9">
-        <v>3.2</v>
-      </c>
-      <c r="G9">
-        <v>1.9</v>
-      </c>
-      <c r="H9">
-        <v>25</v>
-      </c>
-      <c r="I9">
-        <v>3.4</v>
-      </c>
-      <c r="N9">
-        <v>0.3</v>
-      </c>
-      <c r="O9">
-        <v>44</v>
-      </c>
-      <c r="P9">
-        <v>4</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>1.5</v>
-      </c>
-      <c r="T9">
-        <v>3</v>
-      </c>
-      <c r="U9">
-        <v>2</v>
-      </c>
-      <c r="Z9">
-        <v>0.17</v>
-      </c>
-      <c r="AA9">
-        <v>4.2</v>
-      </c>
-      <c r="AB9">
-        <v>7.1</v>
-      </c>
-      <c r="AC9">
-        <v>0.6</v>
-      </c>
-      <c r="AD9">
-        <v>2.9</v>
-      </c>
-      <c r="AE9">
-        <v>0.7</v>
-      </c>
-      <c r="AH9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10">
-        <v>40</v>
-      </c>
-      <c r="C10">
-        <v>1.3</v>
-      </c>
-      <c r="D10">
-        <v>30</v>
-      </c>
-      <c r="E10">
-        <v>21</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10">
-        <v>9</v>
-      </c>
-      <c r="H10">
-        <v>61</v>
-      </c>
-      <c r="I10">
-        <v>21</v>
-      </c>
-      <c r="N10">
-        <v>2.6</v>
-      </c>
-      <c r="O10">
-        <v>131</v>
-      </c>
-      <c r="P10">
-        <v>20</v>
-      </c>
-      <c r="R10">
-        <v>3.1</v>
-      </c>
-      <c r="S10">
-        <v>2.1</v>
-      </c>
-      <c r="T10">
-        <v>10</v>
-      </c>
-      <c r="U10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Z10">
-        <v>0.5</v>
-      </c>
-      <c r="AA10">
-        <v>9</v>
-      </c>
-      <c r="AD10">
-        <v>2.6</v>
-      </c>
-      <c r="AI10">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11">
-        <v>140</v>
-      </c>
-      <c r="C11">
-        <v>2.1</v>
-      </c>
-      <c r="D11">
-        <v>50</v>
-      </c>
-      <c r="E11">
-        <v>60</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1.6</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>12</v>
-      </c>
-      <c r="S11">
-        <v>3</v>
-      </c>
-      <c r="T11">
-        <v>8</v>
-      </c>
-      <c r="U11">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AH11">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12">
-        <v>7</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>4.3</v>
-      </c>
-      <c r="H12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I12">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>5.5</v>
-      </c>
-      <c r="L12">
-        <v>0.7</v>
-      </c>
-      <c r="M12">
-        <v>0.8</v>
-      </c>
-      <c r="N12">
-        <v>3.2</v>
-      </c>
-      <c r="O12">
-        <v>2.4</v>
-      </c>
-      <c r="P12">
-        <v>81</v>
-      </c>
-      <c r="W12">
-        <v>0.05</v>
-      </c>
-      <c r="Y12">
-        <v>0.04</v>
-      </c>
-      <c r="Z12">
-        <v>2.4</v>
-      </c>
-      <c r="AB12">
-        <v>1.3</v>
-      </c>
-      <c r="AC12">
-        <v>2.7</v>
-      </c>
-      <c r="AD12">
-        <v>3.5</v>
-      </c>
-      <c r="AE12">
-        <v>0.7</v>
-      </c>
-      <c r="AF12">
-        <v>0.2</v>
-      </c>
-      <c r="AH12">
-        <v>3.5</v>
-      </c>
-      <c r="AI12">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>0.7</v>
-      </c>
-      <c r="D13">
-        <v>60</v>
-      </c>
-      <c r="E13">
-        <v>30</v>
-      </c>
-      <c r="F13">
-        <v>25</v>
-      </c>
-      <c r="G13">
-        <v>18.5</v>
-      </c>
-      <c r="H13">
-        <v>5.3</v>
-      </c>
-      <c r="I13">
-        <v>25</v>
-      </c>
-      <c r="J13">
-        <v>6</v>
-      </c>
-      <c r="K13">
-        <v>27</v>
-      </c>
-      <c r="L13">
-        <v>4</v>
-      </c>
-      <c r="M13">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="N13">
-        <v>10.8</v>
-      </c>
-      <c r="O13">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="P13">
-        <v>280</v>
-      </c>
-      <c r="Q13">
-        <v>170</v>
-      </c>
-      <c r="S13">
-        <v>10.5</v>
-      </c>
-      <c r="T13">
-        <v>26</v>
-      </c>
-      <c r="U13">
-        <v>1.4</v>
-      </c>
-      <c r="V13">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="W13">
-        <v>0.21</v>
-      </c>
-      <c r="X13">
-        <v>0.03</v>
-      </c>
-      <c r="Y13">
-        <v>0.12</v>
-      </c>
-      <c r="Z13">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="AA13">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="AB13">
-        <v>25</v>
-      </c>
-      <c r="AC13">
-        <v>23</v>
-      </c>
-      <c r="AD13">
-        <v>104</v>
-      </c>
-      <c r="AE13">
-        <v>35</v>
-      </c>
-      <c r="AF13">
-        <v>0.7</v>
-      </c>
-      <c r="AG13">
-        <v>5</v>
-      </c>
-      <c r="AI13">
-        <v>25</v>
-      </c>
-      <c r="AJ13">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18">
-        <v>20</v>
-      </c>
-      <c r="T18">
-        <v>4</v>
-      </c>
-      <c r="Z18">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19">
-        <v>5920</v>
-      </c>
-      <c r="C19">
-        <v>367</v>
-      </c>
-      <c r="D19">
-        <v>46400</v>
-      </c>
-      <c r="E19">
-        <v>47400</v>
-      </c>
-      <c r="F19">
-        <v>5130</v>
-      </c>
-      <c r="G19">
-        <v>616</v>
-      </c>
-      <c r="H19">
-        <v>640</v>
-      </c>
-      <c r="I19">
-        <v>843</v>
-      </c>
-      <c r="J19">
-        <v>384</v>
-      </c>
-      <c r="K19">
-        <v>1590</v>
-      </c>
-      <c r="L19">
-        <v>563</v>
-      </c>
-      <c r="M19">
-        <v>41.9</v>
-      </c>
-      <c r="N19">
-        <v>728</v>
-      </c>
-      <c r="O19">
-        <v>7950</v>
-      </c>
-      <c r="P19">
-        <v>7920</v>
-      </c>
-      <c r="Q19">
-        <v>206000</v>
-      </c>
-      <c r="R19">
-        <v>1880</v>
-      </c>
-      <c r="S19">
-        <v>5030</v>
-      </c>
-      <c r="T19">
-        <v>23700</v>
-      </c>
-      <c r="U19">
-        <v>3980</v>
-      </c>
-      <c r="V19">
-        <v>1.01</v>
-      </c>
-      <c r="W19">
-        <v>9.9</v>
-      </c>
-      <c r="X19">
-        <v>1.21</v>
-      </c>
-      <c r="Y19">
-        <v>1.21</v>
-      </c>
-      <c r="Z19">
-        <v>182</v>
-      </c>
-      <c r="AA19">
-        <v>895</v>
-      </c>
-      <c r="AB19">
-        <v>527</v>
-      </c>
-      <c r="AC19">
-        <v>444</v>
-      </c>
-      <c r="AD19">
-        <v>1090</v>
-      </c>
-      <c r="AE19">
-        <v>1290</v>
-      </c>
-      <c r="AF19">
-        <v>43.2</v>
-      </c>
-      <c r="AG19">
-        <v>179</v>
-      </c>
-      <c r="AH19">
-        <v>189</v>
-      </c>
-      <c r="AI19">
-        <v>638</v>
-      </c>
-      <c r="AJ19">
-        <v>43.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20">
-        <v>800</v>
-      </c>
-      <c r="C20">
-        <v>31</v>
-      </c>
-      <c r="D20">
-        <v>20000</v>
-      </c>
-      <c r="E20">
-        <v>26200</v>
-      </c>
-      <c r="F20">
-        <v>860</v>
-      </c>
-      <c r="G20">
-        <v>75</v>
-      </c>
-      <c r="H20">
-        <v>227</v>
-      </c>
-      <c r="I20">
-        <v>281</v>
-      </c>
-      <c r="J20">
-        <v>45</v>
-      </c>
-      <c r="K20">
-        <v>204</v>
-      </c>
-      <c r="L20">
-        <v>49</v>
-      </c>
-      <c r="M20">
-        <v>3.5</v>
-      </c>
-      <c r="N20">
-        <v>84</v>
-      </c>
-      <c r="O20">
-        <v>1020</v>
-      </c>
-      <c r="P20">
-        <v>440</v>
-      </c>
-      <c r="Q20">
-        <v>22500</v>
-      </c>
-      <c r="R20">
-        <v>135</v>
-      </c>
-      <c r="S20">
-        <v>610</v>
-      </c>
-      <c r="T20">
-        <v>1370</v>
-      </c>
-      <c r="U20">
-        <v>540</v>
-      </c>
-      <c r="V20">
-        <v>0.13</v>
-      </c>
-      <c r="W20">
-        <v>0.9</v>
-      </c>
-      <c r="X20">
-        <v>0.15</v>
-      </c>
-      <c r="Y20">
-        <v>0.13</v>
-      </c>
-      <c r="Z20">
-        <v>20</v>
-      </c>
-      <c r="AA20">
-        <v>220</v>
-      </c>
-      <c r="AB20">
-        <v>100</v>
-      </c>
-      <c r="AC20">
-        <v>68</v>
-      </c>
-      <c r="AD20">
-        <v>280</v>
-      </c>
-      <c r="AE20">
-        <v>180</v>
-      </c>
-      <c r="AF20">
-        <v>3.4</v>
-      </c>
-      <c r="AG20">
-        <v>6.9</v>
-      </c>
-      <c r="AH20">
-        <v>31</v>
-      </c>
-      <c r="AI20">
-        <v>49</v>
-      </c>
-      <c r="AJ20">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21">
-        <v>11.9</v>
-      </c>
-      <c r="C21">
-        <v>0.37</v>
-      </c>
-      <c r="D21">
-        <v>1.2</v>
-      </c>
-      <c r="E21">
-        <v>1.3</v>
-      </c>
-      <c r="F21">
-        <v>0.24</v>
-      </c>
-      <c r="G21">
-        <v>0.23</v>
-      </c>
-      <c r="H21">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I21">
-        <v>1.7</v>
-      </c>
-      <c r="J21">
-        <v>0.4</v>
-      </c>
-      <c r="K21">
-        <v>0.27</v>
-      </c>
-      <c r="L21">
-        <v>0.21</v>
-      </c>
-      <c r="N21">
-        <v>0.35</v>
-      </c>
-      <c r="O21">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="P21">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="Q21">
-        <v>39.9</v>
-      </c>
-      <c r="R21">
-        <v>0.04</v>
-      </c>
-      <c r="S21">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="T21">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="U21">
-        <v>0.12</v>
-      </c>
-      <c r="Z21">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AA21">
-        <v>2.1</v>
-      </c>
-      <c r="AB21">
-        <v>1.4</v>
-      </c>
-      <c r="AC21">
-        <v>1.3</v>
-      </c>
-      <c r="AD21">
-        <v>1.4</v>
-      </c>
-      <c r="AE21">
-        <v>3.2</v>
-      </c>
-      <c r="AG21">
-        <v>9.9900000000000003E-2</v>
-      </c>
-      <c r="AH21">
-        <v>0.03</v>
-      </c>
-      <c r="AI21">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G22">
-        <v>1.2E-2</v>
-      </c>
-      <c r="H22">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I22">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J22">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K22">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="L22">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="N22">
-        <v>0.01</v>
-      </c>
-      <c r="P22">
-        <v>0.05</v>
-      </c>
-      <c r="AA22">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AB22">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="AC22">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AD22">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AE22">
-        <v>1.2E-2</v>
-      </c>
-      <c r="AG22">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="AH22">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AI22">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G23">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H23">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="I23">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J23">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K23">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="L23">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="N23">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="P23">
-        <v>0.02</v>
-      </c>
-      <c r="AA23">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AB23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="AC23">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AD23">
-        <v>1.4E-2</v>
-      </c>
-      <c r="AE23">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="AG23">
-        <v>2.3E-3</v>
-      </c>
-      <c r="AH23">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AI23">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25">
-        <v>10.6</v>
-      </c>
-      <c r="C25">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="E25">
-        <v>2.8</v>
-      </c>
-      <c r="F25">
-        <v>0.44</v>
-      </c>
-      <c r="G25">
-        <v>3.1E-2</v>
-      </c>
-      <c r="H25">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="I25">
-        <v>1.48</v>
-      </c>
-      <c r="J25">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="K25">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="L25">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="N25">
-        <v>0.08</v>
-      </c>
-      <c r="P25">
-        <v>0.2</v>
-      </c>
-      <c r="Q25">
-        <v>33</v>
-      </c>
-      <c r="S25">
-        <v>1.7</v>
-      </c>
-      <c r="T25">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="U25">
-        <v>0.11</v>
-      </c>
-      <c r="Z25">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="AA25">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="AB25">
-        <v>0.27</v>
-      </c>
-      <c r="AC25">
-        <v>0.23</v>
-      </c>
-      <c r="AD25">
-        <v>0.16</v>
-      </c>
-      <c r="AE25">
-        <v>0.84</v>
-      </c>
-      <c r="AG25">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="AH25">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="AI25">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AJ25">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26">
-        <v>10.3</v>
-      </c>
-      <c r="C26">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="E26">
-        <v>2.8</v>
-      </c>
-      <c r="F26">
-        <v>0.36</v>
-      </c>
-      <c r="G26">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="H26">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="I26">
-        <v>1.07</v>
-      </c>
-      <c r="J26">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="K26">
-        <v>2.3E-2</v>
-      </c>
-      <c r="L26">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="N26">
-        <v>0.09</v>
-      </c>
-      <c r="P26">
-        <v>0.26</v>
-      </c>
-      <c r="Q26">
-        <v>13.1</v>
-      </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
-      <c r="T26">
-        <v>4</v>
-      </c>
-      <c r="U26">
-        <v>0.13</v>
-      </c>
-      <c r="Z26">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AA26">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="AB26">
-        <v>0.11</v>
-      </c>
-      <c r="AC26">
-        <v>0.08</v>
-      </c>
-      <c r="AD26">
-        <v>0.11</v>
-      </c>
-      <c r="AE26">
-        <v>0.17</v>
-      </c>
-      <c r="AG26">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="AH26">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="AI26">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="AJ26">
-        <v>9.9900000000000006E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27">
-        <v>46.9</v>
-      </c>
-      <c r="C27">
-        <v>7.69</v>
-      </c>
-      <c r="D27">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="E27">
-        <v>114</v>
-      </c>
-      <c r="F27">
-        <v>15.5</v>
-      </c>
-      <c r="G27">
-        <v>1.24</v>
-      </c>
-      <c r="H27">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I27">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="J27">
-        <v>1.5</v>
-      </c>
-      <c r="K27">
-        <v>3.99</v>
-      </c>
-      <c r="L27">
-        <v>0.501</v>
-      </c>
-      <c r="N27">
-        <v>2.4</v>
-      </c>
-      <c r="O27">
-        <v>2.79</v>
-      </c>
-      <c r="P27">
-        <v>11.4</v>
-      </c>
-      <c r="Q27">
-        <v>538</v>
-      </c>
-      <c r="R27">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="S27">
-        <v>49.9</v>
-      </c>
-      <c r="T27">
-        <v>186</v>
-      </c>
-      <c r="U27">
-        <v>7.68</v>
-      </c>
-      <c r="Z27">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="AA27">
-        <v>3.3</v>
-      </c>
-      <c r="AB27">
-        <v>6.69</v>
-      </c>
-      <c r="AC27">
-        <v>6.34</v>
-      </c>
-      <c r="AD27">
-        <v>5.69</v>
-      </c>
-      <c r="AE27">
-        <v>12.3</v>
-      </c>
-      <c r="AG27">
-        <v>1.4</v>
-      </c>
-      <c r="AH27">
-        <v>0.32</v>
-      </c>
-      <c r="AI27">
-        <v>2.1</v>
-      </c>
-      <c r="AJ27">
-        <v>0.309</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28">
-        <v>14.1</v>
-      </c>
-      <c r="C28">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="E28">
-        <v>5.52</v>
-      </c>
-      <c r="F28">
-        <v>0.441</v>
-      </c>
-      <c r="G28">
-        <v>7.3099999999999998E-2</v>
-      </c>
-      <c r="H28">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="I28">
-        <v>1.26</v>
-      </c>
-      <c r="J28">
-        <v>5.2900000000000003E-2</v>
-      </c>
-      <c r="K28">
-        <v>0.08</v>
-      </c>
-      <c r="L28">
-        <v>3.1E-2</v>
-      </c>
-      <c r="N28">
-        <v>0.12</v>
-      </c>
-      <c r="P28">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="Q28">
-        <v>25.1</v>
-      </c>
-      <c r="S28">
-        <v>2.1</v>
-      </c>
-      <c r="T28">
-        <v>4.32</v>
-      </c>
-      <c r="U28">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="Z28">
-        <v>3.9E-2</v>
-      </c>
-      <c r="AA28">
-        <v>0.2</v>
-      </c>
-      <c r="AB28">
-        <v>0.42</v>
-      </c>
-      <c r="AC28">
-        <v>0.36</v>
-      </c>
-      <c r="AD28">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AE28">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="AG28">
-        <v>7.0099999999999996E-2</v>
-      </c>
-      <c r="AH28">
-        <v>1.6E-2</v>
-      </c>
-      <c r="AI28">
-        <v>0.1</v>
-      </c>
-      <c r="AJ28">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29">
-        <v>4.3899999999999998E-3</v>
-      </c>
-      <c r="H29">
-        <v>2.8400000000000001E-3</v>
-      </c>
-      <c r="U29">
-        <v>1.0300000000000001E-3</v>
-      </c>
-      <c r="AA29">
-        <v>6.7699999999999998E-4</v>
-      </c>
-      <c r="AB29">
-        <v>5.8E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30">
-        <v>7.88</v>
-      </c>
-      <c r="C30">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="E30">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="F30">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="G30">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="H30">
-        <v>0.158</v>
-      </c>
-      <c r="I30">
-        <v>0.37</v>
-      </c>
-      <c r="J30">
-        <v>2.4E-2</v>
-      </c>
-      <c r="K30">
-        <v>4.99E-2</v>
-      </c>
-      <c r="L30">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="N30">
-        <v>0.13</v>
-      </c>
-      <c r="P30">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="Q30">
-        <v>10.3</v>
-      </c>
-      <c r="S30">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="T30">
-        <v>2.1</v>
-      </c>
-      <c r="U30">
-        <v>4.8899999999999999E-2</v>
-      </c>
-      <c r="Z30">
-        <v>8.0099999999999998E-3</v>
-      </c>
-      <c r="AA30">
-        <v>8.9899999999999994E-2</v>
-      </c>
-      <c r="AB30">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="AC30">
-        <v>4.0099999999999997E-2</v>
-      </c>
-      <c r="AD30">
-        <v>5.9900000000000002E-2</v>
-      </c>
-      <c r="AE30">
-        <v>0.11</v>
-      </c>
-      <c r="AG30">
-        <v>1.6E-2</v>
-      </c>
-      <c r="AH30">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AI30">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AJ30">
-        <v>5.9800000000000001E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836C65C9-F906-43D0-916C-488452A82485}">
   <dimension ref="A1:B34"/>
   <sheetViews>
@@ -6957,7 +9629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCC8679-CE3F-44F1-8612-F79E1DD84A18}">
   <dimension ref="A1:B34"/>
   <sheetViews>
@@ -7211,7 +9883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8532C64B-F9EE-4FE1-901A-BA93885B31D4}">
   <dimension ref="A1:G34"/>
   <sheetViews>
@@ -7606,7 +10278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7C753A-9837-4F3D-8002-AC17BDBE390B}">
   <dimension ref="A1:B34"/>
   <sheetViews>
@@ -7836,11 +10508,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:AS34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -9090,11 +11762,1810 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216F679A-9BD8-4043-89D3-39CD60DB234B}">
+  <dimension ref="A1:AJ34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1">
+        <v>11</v>
+      </c>
+      <c r="C1">
+        <v>12</v>
+      </c>
+      <c r="D1">
+        <v>13</v>
+      </c>
+      <c r="E1">
+        <v>14</v>
+      </c>
+      <c r="F1">
+        <v>16</v>
+      </c>
+      <c r="G1">
+        <v>17</v>
+      </c>
+      <c r="H1">
+        <v>18</v>
+      </c>
+      <c r="I1">
+        <v>19</v>
+      </c>
+      <c r="J1">
+        <v>21</v>
+      </c>
+      <c r="K1">
+        <v>22</v>
+      </c>
+      <c r="L1">
+        <v>23</v>
+      </c>
+      <c r="M1">
+        <v>24</v>
+      </c>
+      <c r="N1">
+        <v>25</v>
+      </c>
+      <c r="O1">
+        <v>26</v>
+      </c>
+      <c r="P1">
+        <v>27</v>
+      </c>
+      <c r="Q1">
+        <v>28</v>
+      </c>
+      <c r="R1">
+        <v>29</v>
+      </c>
+      <c r="S1">
+        <v>30</v>
+      </c>
+      <c r="T1">
+        <v>32</v>
+      </c>
+      <c r="U1">
+        <v>33</v>
+      </c>
+      <c r="V1">
+        <v>34</v>
+      </c>
+      <c r="W1">
+        <v>35</v>
+      </c>
+      <c r="X1">
+        <v>36</v>
+      </c>
+      <c r="Y1">
+        <v>37</v>
+      </c>
+      <c r="Z1">
+        <v>38</v>
+      </c>
+      <c r="AA1">
+        <v>39</v>
+      </c>
+      <c r="AB1">
+        <v>40</v>
+      </c>
+      <c r="AC1">
+        <v>42</v>
+      </c>
+      <c r="AD1">
+        <v>43</v>
+      </c>
+      <c r="AE1">
+        <v>44</v>
+      </c>
+      <c r="AF1">
+        <v>45</v>
+      </c>
+      <c r="AG1">
+        <v>46</v>
+      </c>
+      <c r="AH1">
+        <v>47</v>
+      </c>
+      <c r="AI1">
+        <v>51</v>
+      </c>
+      <c r="AJ1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1">
+        <v>34750</v>
+      </c>
+      <c r="C2" s="1">
+        <v>34742</v>
+      </c>
+      <c r="D2" s="1">
+        <v>34779</v>
+      </c>
+      <c r="E2" s="1">
+        <v>34779</v>
+      </c>
+      <c r="F2" s="1">
+        <v>34750</v>
+      </c>
+      <c r="G2" s="1">
+        <v>34741</v>
+      </c>
+      <c r="H2" s="1">
+        <v>34744</v>
+      </c>
+      <c r="I2" s="1">
+        <v>34743</v>
+      </c>
+      <c r="J2" s="1">
+        <v>34717</v>
+      </c>
+      <c r="K2" s="1">
+        <v>34744</v>
+      </c>
+      <c r="L2" s="1">
+        <v>34723</v>
+      </c>
+      <c r="M2" s="1">
+        <v>34733</v>
+      </c>
+      <c r="N2" s="1">
+        <v>34735</v>
+      </c>
+      <c r="O2" s="1">
+        <v>34748</v>
+      </c>
+      <c r="P2" s="1">
+        <v>34750</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>34756</v>
+      </c>
+      <c r="R2" s="1">
+        <v>34748</v>
+      </c>
+      <c r="S2" s="1">
+        <v>34750</v>
+      </c>
+      <c r="T2" s="1">
+        <v>34750</v>
+      </c>
+      <c r="U2" s="1">
+        <v>34747</v>
+      </c>
+      <c r="V2" s="1">
+        <v>34719</v>
+      </c>
+      <c r="W2" s="1">
+        <v>34732</v>
+      </c>
+      <c r="X2" s="1">
+        <v>34724</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>34714</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>34718</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>34739</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>34739</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>34718</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>34745</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>34745</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>34723</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>34740</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>34738</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>34736</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>34756</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>450</v>
+      </c>
+      <c r="C3">
+        <v>11.7</v>
+      </c>
+      <c r="D3">
+        <v>230</v>
+      </c>
+      <c r="E3">
+        <v>290</v>
+      </c>
+      <c r="F3">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>2.7</v>
+      </c>
+      <c r="H3">
+        <v>3.5</v>
+      </c>
+      <c r="I3">
+        <v>2.7</v>
+      </c>
+      <c r="J3">
+        <v>3.4</v>
+      </c>
+      <c r="K3">
+        <v>10.4</v>
+      </c>
+      <c r="L3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M3">
+        <v>1.2</v>
+      </c>
+      <c r="N3">
+        <v>8.6</v>
+      </c>
+      <c r="O3">
+        <v>75</v>
+      </c>
+      <c r="P3">
+        <v>61</v>
+      </c>
+      <c r="Q3">
+        <v>700</v>
+      </c>
+      <c r="R3">
+        <v>18</v>
+      </c>
+      <c r="S3">
+        <v>27</v>
+      </c>
+      <c r="T3">
+        <v>205</v>
+      </c>
+      <c r="U3">
+        <v>40</v>
+      </c>
+      <c r="V3">
+        <v>0.01</v>
+      </c>
+      <c r="W3">
+        <v>0.06</v>
+      </c>
+      <c r="X3">
+        <v>0.02</v>
+      </c>
+      <c r="Z3">
+        <v>0.7</v>
+      </c>
+      <c r="AA3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB3">
+        <v>1.2</v>
+      </c>
+      <c r="AC3">
+        <v>1.2</v>
+      </c>
+      <c r="AD3">
+        <v>4.2</v>
+      </c>
+      <c r="AE3">
+        <v>0.8</v>
+      </c>
+      <c r="AG3">
+        <v>2.1</v>
+      </c>
+      <c r="AH3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AI3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AJ3">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>25000</v>
+      </c>
+      <c r="C5">
+        <v>640</v>
+      </c>
+      <c r="D5">
+        <v>26000</v>
+      </c>
+      <c r="E5">
+        <v>30000</v>
+      </c>
+      <c r="F5">
+        <v>2400</v>
+      </c>
+      <c r="G5">
+        <v>127</v>
+      </c>
+      <c r="H5">
+        <v>400</v>
+      </c>
+      <c r="I5">
+        <v>440</v>
+      </c>
+      <c r="J5">
+        <v>137</v>
+      </c>
+      <c r="K5">
+        <v>530</v>
+      </c>
+      <c r="L5">
+        <v>140</v>
+      </c>
+      <c r="M5">
+        <v>34</v>
+      </c>
+      <c r="N5">
+        <v>180</v>
+      </c>
+      <c r="O5">
+        <v>2300</v>
+      </c>
+      <c r="P5">
+        <v>1970</v>
+      </c>
+      <c r="Q5">
+        <v>44000</v>
+      </c>
+      <c r="R5">
+        <v>940</v>
+      </c>
+      <c r="S5">
+        <v>1920</v>
+      </c>
+      <c r="T5">
+        <v>10000</v>
+      </c>
+      <c r="U5">
+        <v>1500</v>
+      </c>
+      <c r="V5">
+        <v>0.47</v>
+      </c>
+      <c r="W5">
+        <v>3.4</v>
+      </c>
+      <c r="X5">
+        <v>0.47</v>
+      </c>
+      <c r="Y5">
+        <v>1.08</v>
+      </c>
+      <c r="Z5">
+        <v>69</v>
+      </c>
+      <c r="AA5">
+        <v>340</v>
+      </c>
+      <c r="AB5">
+        <v>207</v>
+      </c>
+      <c r="AC5">
+        <v>155</v>
+      </c>
+      <c r="AD5">
+        <v>420</v>
+      </c>
+      <c r="AE5">
+        <v>370</v>
+      </c>
+      <c r="AF5">
+        <v>28</v>
+      </c>
+      <c r="AG5">
+        <v>134</v>
+      </c>
+      <c r="AH5">
+        <v>144</v>
+      </c>
+      <c r="AI5">
+        <v>320</v>
+      </c>
+      <c r="AJ5">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>0.8</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>26</v>
+      </c>
+      <c r="G7">
+        <v>0.3</v>
+      </c>
+      <c r="H7">
+        <v>0.6</v>
+      </c>
+      <c r="I7">
+        <v>0.3</v>
+      </c>
+      <c r="J7">
+        <v>0.2</v>
+      </c>
+      <c r="K7">
+        <v>0.2</v>
+      </c>
+      <c r="Q7">
+        <v>50</v>
+      </c>
+      <c r="R7">
+        <v>0.4</v>
+      </c>
+      <c r="S7">
+        <v>1.3</v>
+      </c>
+      <c r="T7">
+        <v>2.7</v>
+      </c>
+      <c r="U7">
+        <v>1.6</v>
+      </c>
+      <c r="AA7">
+        <v>0.5</v>
+      </c>
+      <c r="AB7">
+        <v>0.27</v>
+      </c>
+      <c r="AC7">
+        <v>0.2</v>
+      </c>
+      <c r="AD7">
+        <v>0.5</v>
+      </c>
+      <c r="AE7">
+        <v>0.5</v>
+      </c>
+      <c r="AG7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9">
+        <v>3.2</v>
+      </c>
+      <c r="G9">
+        <v>1.9</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <v>3.4</v>
+      </c>
+      <c r="N9">
+        <v>0.3</v>
+      </c>
+      <c r="O9">
+        <v>44</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1.5</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="Z9">
+        <v>0.17</v>
+      </c>
+      <c r="AA9">
+        <v>4.2</v>
+      </c>
+      <c r="AB9">
+        <v>7.1</v>
+      </c>
+      <c r="AC9">
+        <v>0.6</v>
+      </c>
+      <c r="AD9">
+        <v>2.9</v>
+      </c>
+      <c r="AE9">
+        <v>0.7</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>1.3</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>61</v>
+      </c>
+      <c r="I10">
+        <v>21</v>
+      </c>
+      <c r="N10">
+        <v>2.6</v>
+      </c>
+      <c r="O10">
+        <v>131</v>
+      </c>
+      <c r="P10">
+        <v>20</v>
+      </c>
+      <c r="R10">
+        <v>3.1</v>
+      </c>
+      <c r="S10">
+        <v>2.1</v>
+      </c>
+      <c r="T10">
+        <v>10</v>
+      </c>
+      <c r="U10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z10">
+        <v>0.5</v>
+      </c>
+      <c r="AA10">
+        <v>9</v>
+      </c>
+      <c r="AD10">
+        <v>2.6</v>
+      </c>
+      <c r="AI10">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>140</v>
+      </c>
+      <c r="C11">
+        <v>2.1</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.6</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>12</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <v>8</v>
+      </c>
+      <c r="U11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AH11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>4.3</v>
+      </c>
+      <c r="H12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>5.5</v>
+      </c>
+      <c r="L12">
+        <v>0.7</v>
+      </c>
+      <c r="M12">
+        <v>0.8</v>
+      </c>
+      <c r="N12">
+        <v>3.2</v>
+      </c>
+      <c r="O12">
+        <v>2.4</v>
+      </c>
+      <c r="P12">
+        <v>81</v>
+      </c>
+      <c r="W12">
+        <v>0.05</v>
+      </c>
+      <c r="Y12">
+        <v>0.04</v>
+      </c>
+      <c r="Z12">
+        <v>2.4</v>
+      </c>
+      <c r="AB12">
+        <v>1.3</v>
+      </c>
+      <c r="AC12">
+        <v>2.7</v>
+      </c>
+      <c r="AD12">
+        <v>3.5</v>
+      </c>
+      <c r="AE12">
+        <v>0.7</v>
+      </c>
+      <c r="AF12">
+        <v>0.2</v>
+      </c>
+      <c r="AH12">
+        <v>3.5</v>
+      </c>
+      <c r="AI12">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>0.7</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>18.5</v>
+      </c>
+      <c r="H13">
+        <v>5.3</v>
+      </c>
+      <c r="I13">
+        <v>25</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <v>27</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N13">
+        <v>10.8</v>
+      </c>
+      <c r="O13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P13">
+        <v>280</v>
+      </c>
+      <c r="Q13">
+        <v>170</v>
+      </c>
+      <c r="S13">
+        <v>10.5</v>
+      </c>
+      <c r="T13">
+        <v>26</v>
+      </c>
+      <c r="U13">
+        <v>1.4</v>
+      </c>
+      <c r="V13">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="W13">
+        <v>0.21</v>
+      </c>
+      <c r="X13">
+        <v>0.03</v>
+      </c>
+      <c r="Y13">
+        <v>0.12</v>
+      </c>
+      <c r="Z13">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AA13">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AB13">
+        <v>25</v>
+      </c>
+      <c r="AC13">
+        <v>23</v>
+      </c>
+      <c r="AD13">
+        <v>104</v>
+      </c>
+      <c r="AE13">
+        <v>35</v>
+      </c>
+      <c r="AF13">
+        <v>0.7</v>
+      </c>
+      <c r="AG13">
+        <v>5</v>
+      </c>
+      <c r="AI13">
+        <v>25</v>
+      </c>
+      <c r="AJ13">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="T18">
+        <v>4</v>
+      </c>
+      <c r="Z18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>5920</v>
+      </c>
+      <c r="C19">
+        <v>367</v>
+      </c>
+      <c r="D19">
+        <v>46400</v>
+      </c>
+      <c r="E19">
+        <v>47400</v>
+      </c>
+      <c r="F19">
+        <v>5130</v>
+      </c>
+      <c r="G19">
+        <v>616</v>
+      </c>
+      <c r="H19">
+        <v>640</v>
+      </c>
+      <c r="I19">
+        <v>843</v>
+      </c>
+      <c r="J19">
+        <v>384</v>
+      </c>
+      <c r="K19">
+        <v>1590</v>
+      </c>
+      <c r="L19">
+        <v>563</v>
+      </c>
+      <c r="M19">
+        <v>41.9</v>
+      </c>
+      <c r="N19">
+        <v>728</v>
+      </c>
+      <c r="O19">
+        <v>7950</v>
+      </c>
+      <c r="P19">
+        <v>7920</v>
+      </c>
+      <c r="Q19">
+        <v>206000</v>
+      </c>
+      <c r="R19">
+        <v>1880</v>
+      </c>
+      <c r="S19">
+        <v>5030</v>
+      </c>
+      <c r="T19">
+        <v>23700</v>
+      </c>
+      <c r="U19">
+        <v>3980</v>
+      </c>
+      <c r="V19">
+        <v>1.01</v>
+      </c>
+      <c r="W19">
+        <v>9.9</v>
+      </c>
+      <c r="X19">
+        <v>1.21</v>
+      </c>
+      <c r="Y19">
+        <v>1.21</v>
+      </c>
+      <c r="Z19">
+        <v>182</v>
+      </c>
+      <c r="AA19">
+        <v>895</v>
+      </c>
+      <c r="AB19">
+        <v>527</v>
+      </c>
+      <c r="AC19">
+        <v>444</v>
+      </c>
+      <c r="AD19">
+        <v>1090</v>
+      </c>
+      <c r="AE19">
+        <v>1290</v>
+      </c>
+      <c r="AF19">
+        <v>43.2</v>
+      </c>
+      <c r="AG19">
+        <v>179</v>
+      </c>
+      <c r="AH19">
+        <v>189</v>
+      </c>
+      <c r="AI19">
+        <v>638</v>
+      </c>
+      <c r="AJ19">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>800</v>
+      </c>
+      <c r="C20">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>20000</v>
+      </c>
+      <c r="E20">
+        <v>26200</v>
+      </c>
+      <c r="F20">
+        <v>860</v>
+      </c>
+      <c r="G20">
+        <v>75</v>
+      </c>
+      <c r="H20">
+        <v>227</v>
+      </c>
+      <c r="I20">
+        <v>281</v>
+      </c>
+      <c r="J20">
+        <v>45</v>
+      </c>
+      <c r="K20">
+        <v>204</v>
+      </c>
+      <c r="L20">
+        <v>49</v>
+      </c>
+      <c r="M20">
+        <v>3.5</v>
+      </c>
+      <c r="N20">
+        <v>84</v>
+      </c>
+      <c r="O20">
+        <v>1020</v>
+      </c>
+      <c r="P20">
+        <v>440</v>
+      </c>
+      <c r="Q20">
+        <v>22500</v>
+      </c>
+      <c r="R20">
+        <v>135</v>
+      </c>
+      <c r="S20">
+        <v>610</v>
+      </c>
+      <c r="T20">
+        <v>1370</v>
+      </c>
+      <c r="U20">
+        <v>540</v>
+      </c>
+      <c r="V20">
+        <v>0.13</v>
+      </c>
+      <c r="W20">
+        <v>0.9</v>
+      </c>
+      <c r="X20">
+        <v>0.15</v>
+      </c>
+      <c r="Y20">
+        <v>0.13</v>
+      </c>
+      <c r="Z20">
+        <v>20</v>
+      </c>
+      <c r="AA20">
+        <v>220</v>
+      </c>
+      <c r="AB20">
+        <v>100</v>
+      </c>
+      <c r="AC20">
+        <v>68</v>
+      </c>
+      <c r="AD20">
+        <v>280</v>
+      </c>
+      <c r="AE20">
+        <v>180</v>
+      </c>
+      <c r="AF20">
+        <v>3.4</v>
+      </c>
+      <c r="AG20">
+        <v>6.9</v>
+      </c>
+      <c r="AH20">
+        <v>31</v>
+      </c>
+      <c r="AI20">
+        <v>49</v>
+      </c>
+      <c r="AJ20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21">
+        <v>11.9</v>
+      </c>
+      <c r="C21">
+        <v>0.37</v>
+      </c>
+      <c r="D21">
+        <v>1.2</v>
+      </c>
+      <c r="E21">
+        <v>1.3</v>
+      </c>
+      <c r="F21">
+        <v>0.24</v>
+      </c>
+      <c r="G21">
+        <v>0.23</v>
+      </c>
+      <c r="H21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I21">
+        <v>1.7</v>
+      </c>
+      <c r="J21">
+        <v>0.4</v>
+      </c>
+      <c r="K21">
+        <v>0.27</v>
+      </c>
+      <c r="L21">
+        <v>0.21</v>
+      </c>
+      <c r="N21">
+        <v>0.35</v>
+      </c>
+      <c r="O21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P21">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="Q21">
+        <v>39.9</v>
+      </c>
+      <c r="R21">
+        <v>0.04</v>
+      </c>
+      <c r="S21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T21">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="U21">
+        <v>0.12</v>
+      </c>
+      <c r="Z21">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AA21">
+        <v>2.1</v>
+      </c>
+      <c r="AB21">
+        <v>1.4</v>
+      </c>
+      <c r="AC21">
+        <v>1.3</v>
+      </c>
+      <c r="AD21">
+        <v>1.4</v>
+      </c>
+      <c r="AE21">
+        <v>3.2</v>
+      </c>
+      <c r="AG21">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="AH21">
+        <v>0.03</v>
+      </c>
+      <c r="AI21">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="N22">
+        <v>0.01</v>
+      </c>
+      <c r="P22">
+        <v>0.05</v>
+      </c>
+      <c r="AA22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AB22">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AC22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AD22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AE22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AG22">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="AH22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AI22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H23">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K23">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="P23">
+        <v>0.02</v>
+      </c>
+      <c r="AA23">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AB23">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AC23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AD23">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AE23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AG23">
+        <v>2.3E-3</v>
+      </c>
+      <c r="AH23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AI23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25">
+        <v>10.6</v>
+      </c>
+      <c r="C25">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="E25">
+        <v>2.8</v>
+      </c>
+      <c r="F25">
+        <v>0.44</v>
+      </c>
+      <c r="G25">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H25">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="I25">
+        <v>1.48</v>
+      </c>
+      <c r="J25">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K25">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L25">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="N25">
+        <v>0.08</v>
+      </c>
+      <c r="P25">
+        <v>0.2</v>
+      </c>
+      <c r="Q25">
+        <v>33</v>
+      </c>
+      <c r="S25">
+        <v>1.7</v>
+      </c>
+      <c r="T25">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U25">
+        <v>0.11</v>
+      </c>
+      <c r="Z25">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AA25">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AB25">
+        <v>0.27</v>
+      </c>
+      <c r="AC25">
+        <v>0.23</v>
+      </c>
+      <c r="AD25">
+        <v>0.16</v>
+      </c>
+      <c r="AE25">
+        <v>0.84</v>
+      </c>
+      <c r="AG25">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="AH25">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AJ25">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <v>10.3</v>
+      </c>
+      <c r="C26">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="E26">
+        <v>2.8</v>
+      </c>
+      <c r="F26">
+        <v>0.36</v>
+      </c>
+      <c r="G26">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H26">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="I26">
+        <v>1.07</v>
+      </c>
+      <c r="J26">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K26">
+        <v>2.3E-2</v>
+      </c>
+      <c r="L26">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="N26">
+        <v>0.09</v>
+      </c>
+      <c r="P26">
+        <v>0.26</v>
+      </c>
+      <c r="Q26">
+        <v>13.1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>4</v>
+      </c>
+      <c r="U26">
+        <v>0.13</v>
+      </c>
+      <c r="Z26">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AA26">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="AB26">
+        <v>0.11</v>
+      </c>
+      <c r="AC26">
+        <v>0.08</v>
+      </c>
+      <c r="AD26">
+        <v>0.11</v>
+      </c>
+      <c r="AE26">
+        <v>0.17</v>
+      </c>
+      <c r="AG26">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AH26">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI26">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AJ26">
+        <v>9.9900000000000006E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27">
+        <v>46.9</v>
+      </c>
+      <c r="C27">
+        <v>7.69</v>
+      </c>
+      <c r="D27">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="E27">
+        <v>114</v>
+      </c>
+      <c r="F27">
+        <v>15.5</v>
+      </c>
+      <c r="G27">
+        <v>1.24</v>
+      </c>
+      <c r="H27">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I27">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="J27">
+        <v>1.5</v>
+      </c>
+      <c r="K27">
+        <v>3.99</v>
+      </c>
+      <c r="L27">
+        <v>0.501</v>
+      </c>
+      <c r="N27">
+        <v>2.4</v>
+      </c>
+      <c r="O27">
+        <v>2.79</v>
+      </c>
+      <c r="P27">
+        <v>11.4</v>
+      </c>
+      <c r="Q27">
+        <v>538</v>
+      </c>
+      <c r="R27">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="S27">
+        <v>49.9</v>
+      </c>
+      <c r="T27">
+        <v>186</v>
+      </c>
+      <c r="U27">
+        <v>7.68</v>
+      </c>
+      <c r="Z27">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="AA27">
+        <v>3.3</v>
+      </c>
+      <c r="AB27">
+        <v>6.69</v>
+      </c>
+      <c r="AC27">
+        <v>6.34</v>
+      </c>
+      <c r="AD27">
+        <v>5.69</v>
+      </c>
+      <c r="AE27">
+        <v>12.3</v>
+      </c>
+      <c r="AG27">
+        <v>1.4</v>
+      </c>
+      <c r="AH27">
+        <v>0.32</v>
+      </c>
+      <c r="AI27">
+        <v>2.1</v>
+      </c>
+      <c r="AJ27">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28">
+        <v>14.1</v>
+      </c>
+      <c r="C28">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="E28">
+        <v>5.52</v>
+      </c>
+      <c r="F28">
+        <v>0.441</v>
+      </c>
+      <c r="G28">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="H28">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="I28">
+        <v>1.26</v>
+      </c>
+      <c r="J28">
+        <v>5.2900000000000003E-2</v>
+      </c>
+      <c r="K28">
+        <v>0.08</v>
+      </c>
+      <c r="L28">
+        <v>3.1E-2</v>
+      </c>
+      <c r="N28">
+        <v>0.12</v>
+      </c>
+      <c r="P28">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="Q28">
+        <v>25.1</v>
+      </c>
+      <c r="S28">
+        <v>2.1</v>
+      </c>
+      <c r="T28">
+        <v>4.32</v>
+      </c>
+      <c r="U28">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="Z28">
+        <v>3.9E-2</v>
+      </c>
+      <c r="AA28">
+        <v>0.2</v>
+      </c>
+      <c r="AB28">
+        <v>0.42</v>
+      </c>
+      <c r="AC28">
+        <v>0.36</v>
+      </c>
+      <c r="AD28">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AE28">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="AG28">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="AH28">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AI28">
+        <v>0.1</v>
+      </c>
+      <c r="AJ28">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29">
+        <v>4.3899999999999998E-3</v>
+      </c>
+      <c r="H29">
+        <v>2.8400000000000001E-3</v>
+      </c>
+      <c r="U29">
+        <v>1.0300000000000001E-3</v>
+      </c>
+      <c r="AA29">
+        <v>6.7699999999999998E-4</v>
+      </c>
+      <c r="AB29">
+        <v>5.8E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30">
+        <v>7.88</v>
+      </c>
+      <c r="C30">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="E30">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="F30">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="G30">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H30">
+        <v>0.158</v>
+      </c>
+      <c r="I30">
+        <v>0.37</v>
+      </c>
+      <c r="J30">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K30">
+        <v>4.99E-2</v>
+      </c>
+      <c r="L30">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="N30">
+        <v>0.13</v>
+      </c>
+      <c r="P30">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="Q30">
+        <v>10.3</v>
+      </c>
+      <c r="S30">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="T30">
+        <v>2.1</v>
+      </c>
+      <c r="U30">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="Z30">
+        <v>8.0099999999999998E-3</v>
+      </c>
+      <c r="AA30">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="AB30">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AC30">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="AD30">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="AE30">
+        <v>0.11</v>
+      </c>
+      <c r="AG30">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AH30">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AI30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AJ30">
+        <v>5.9800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCD9A68-95D7-4350-953B-984806B54ECE}">
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9307,7 +13778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2438C7A-A6F0-42AD-B692-7CD27829CCED}">
   <dimension ref="A1:B34"/>
   <sheetViews>
@@ -9510,7 +13981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06FD1274-166F-4C9E-BCBC-F328328153E4}">
   <dimension ref="A1:B34"/>
   <sheetViews>
@@ -9713,7 +14184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5DB20C-77B7-4456-9DDF-689E9E0445CB}">
   <dimension ref="A1:M34"/>
   <sheetViews>
@@ -10423,12 +14894,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AE9BB4-1506-4B3D-96D5-1EBAB68013DC}">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B1" sqref="B1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10893,12 +15364,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5430FBD-7E01-4D76-8533-4CC43C8945CD}">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B1" sqref="B1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11400,852 +15871,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B759AF24-7AF8-4E54-A8C9-8D6D1987B51E}">
-  <dimension ref="A1:Q34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>12</v>
-      </c>
-      <c r="N1">
-        <v>13</v>
-      </c>
-      <c r="O1">
-        <v>14</v>
-      </c>
-      <c r="P1">
-        <v>15</v>
-      </c>
-      <c r="Q1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="1">
-        <v>42622</v>
-      </c>
-      <c r="C2" s="1">
-        <v>42622</v>
-      </c>
-      <c r="D2" s="1">
-        <v>42622</v>
-      </c>
-      <c r="E2" s="1">
-        <v>42622</v>
-      </c>
-      <c r="F2" s="1">
-        <v>42622</v>
-      </c>
-      <c r="G2" s="1">
-        <v>42622</v>
-      </c>
-      <c r="H2" s="1">
-        <v>42622</v>
-      </c>
-      <c r="I2" s="1">
-        <v>42622</v>
-      </c>
-      <c r="J2" s="1">
-        <v>42622</v>
-      </c>
-      <c r="K2" s="1">
-        <v>42622</v>
-      </c>
-      <c r="L2" s="1">
-        <v>42622</v>
-      </c>
-      <c r="M2" s="1">
-        <v>42622</v>
-      </c>
-      <c r="N2" s="1">
-        <v>42622</v>
-      </c>
-      <c r="O2" s="1">
-        <v>42622</v>
-      </c>
-      <c r="P2" s="1">
-        <v>42622</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>42622</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5">
-        <v>6.8</v>
-      </c>
-      <c r="C5">
-        <v>3.2</v>
-      </c>
-      <c r="D5">
-        <v>2.4</v>
-      </c>
-      <c r="E5">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5">
-        <v>3.1</v>
-      </c>
-      <c r="H5">
-        <v>0.18</v>
-      </c>
-      <c r="I5">
-        <v>1.8</v>
-      </c>
-      <c r="J5">
-        <v>7.9</v>
-      </c>
-      <c r="K5">
-        <v>1.9</v>
-      </c>
-      <c r="L5">
-        <v>2.59</v>
-      </c>
-      <c r="M5">
-        <v>10.1</v>
-      </c>
-      <c r="N5">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="O5">
-        <v>2.73</v>
-      </c>
-      <c r="P5">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="Q5">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="E7">
-        <v>0.12</v>
-      </c>
-      <c r="F7">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="J7">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="K7">
-        <v>3.1E-2</v>
-      </c>
-      <c r="L7">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="M7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N7">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="O7">
-        <v>0.04</v>
-      </c>
-      <c r="Q7">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9">
-        <v>0.47</v>
-      </c>
-      <c r="C9">
-        <v>0.1</v>
-      </c>
-      <c r="D9">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="E9">
-        <v>0.61</v>
-      </c>
-      <c r="F9">
-        <v>0.38</v>
-      </c>
-      <c r="G9">
-        <v>0.16</v>
-      </c>
-      <c r="I9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J9">
-        <v>0.74</v>
-      </c>
-      <c r="K9">
-        <v>0.16</v>
-      </c>
-      <c r="L9">
-        <v>0.13</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>0.68</v>
-      </c>
-      <c r="O9">
-        <v>0.22</v>
-      </c>
-      <c r="P9">
-        <v>1.2E-2</v>
-      </c>
-      <c r="Q9">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>4.7</v>
-      </c>
-      <c r="D13">
-        <v>2.7</v>
-      </c>
-      <c r="E13">
-        <v>12</v>
-      </c>
-      <c r="F13">
-        <v>11</v>
-      </c>
-      <c r="G13">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H13">
-        <v>2.9</v>
-      </c>
-      <c r="I13">
-        <v>1.4</v>
-      </c>
-      <c r="J13">
-        <v>14.6</v>
-      </c>
-      <c r="K13">
-        <v>5.31</v>
-      </c>
-      <c r="L13">
-        <v>3.31</v>
-      </c>
-      <c r="M13">
-        <v>14.8</v>
-      </c>
-      <c r="N13">
-        <v>13.4</v>
-      </c>
-      <c r="O13">
-        <v>4.29</v>
-      </c>
-      <c r="P13">
-        <v>3.39</v>
-      </c>
-      <c r="Q13">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19">
-        <v>2.7</v>
-      </c>
-      <c r="C19">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D19">
-        <v>2.8</v>
-      </c>
-      <c r="E19">
-        <v>3.8</v>
-      </c>
-      <c r="F19">
-        <v>2.1</v>
-      </c>
-      <c r="G19">
-        <v>1.2</v>
-      </c>
-      <c r="H19">
-        <v>1.7</v>
-      </c>
-      <c r="I19">
-        <v>0.15</v>
-      </c>
-      <c r="J19">
-        <v>2.7</v>
-      </c>
-      <c r="K19">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="L19">
-        <v>2.8</v>
-      </c>
-      <c r="M19">
-        <v>3.8</v>
-      </c>
-      <c r="N19">
-        <v>2.1</v>
-      </c>
-      <c r="O19">
-        <v>1.2</v>
-      </c>
-      <c r="P19">
-        <v>1.7</v>
-      </c>
-      <c r="Q19">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20">
-        <v>79</v>
-      </c>
-      <c r="C20">
-        <v>29</v>
-      </c>
-      <c r="D20">
-        <v>13</v>
-      </c>
-      <c r="E20">
-        <v>72</v>
-      </c>
-      <c r="F20">
-        <v>60</v>
-      </c>
-      <c r="G20">
-        <v>23</v>
-      </c>
-      <c r="H20">
-        <v>14</v>
-      </c>
-      <c r="I20">
-        <v>2.5</v>
-      </c>
-      <c r="J20">
-        <v>79</v>
-      </c>
-      <c r="K20">
-        <v>29</v>
-      </c>
-      <c r="L20">
-        <v>13</v>
-      </c>
-      <c r="M20">
-        <v>72</v>
-      </c>
-      <c r="N20">
-        <v>60</v>
-      </c>
-      <c r="O20">
-        <v>23</v>
-      </c>
-      <c r="P20">
-        <v>14</v>
-      </c>
-      <c r="Q20">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21">
-        <v>0.42</v>
-      </c>
-      <c r="C21">
-        <v>0.12</v>
-      </c>
-      <c r="D21">
-        <v>0.12</v>
-      </c>
-      <c r="E21">
-        <v>0.37</v>
-      </c>
-      <c r="F21">
-        <v>0.35</v>
-      </c>
-      <c r="G21">
-        <v>0.41</v>
-      </c>
-      <c r="J21">
-        <v>0.42</v>
-      </c>
-      <c r="K21">
-        <v>0.12</v>
-      </c>
-      <c r="L21">
-        <v>0.12</v>
-      </c>
-      <c r="M21">
-        <v>0.37</v>
-      </c>
-      <c r="N21">
-        <v>0.35</v>
-      </c>
-      <c r="O21">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="C22">
-        <v>1.9E-2</v>
-      </c>
-      <c r="D22">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="E22">
-        <v>2.3E-2</v>
-      </c>
-      <c r="F22">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="G22">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="H22">
-        <v>2.4E-2</v>
-      </c>
-      <c r="I22">
-        <v>1.2E-2</v>
-      </c>
-      <c r="J22">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="K22">
-        <v>1.9E-2</v>
-      </c>
-      <c r="L22">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="M22">
-        <v>2.3E-2</v>
-      </c>
-      <c r="N22">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="O22">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="P22">
-        <v>2.4E-2</v>
-      </c>
-      <c r="Q22">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23">
-        <v>2.7E-2</v>
-      </c>
-      <c r="C23">
-        <v>1.9E-2</v>
-      </c>
-      <c r="D23">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E23">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F23">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="G23">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="H23">
-        <v>2.4E-2</v>
-      </c>
-      <c r="I23">
-        <v>1.2E-2</v>
-      </c>
-      <c r="J23">
-        <v>2.7E-2</v>
-      </c>
-      <c r="K23">
-        <v>1.9E-2</v>
-      </c>
-      <c r="L23">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="M23">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="N23">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="O23">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="P23">
-        <v>2.4E-2</v>
-      </c>
-      <c r="Q23">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="C25">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D25">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E25">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F25">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="G25">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="I25">
-        <v>3.8E-3</v>
-      </c>
-      <c r="J25">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="K25">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="L25">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="M25">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="N25">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="O25">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="Q25">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="E26">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="F26">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G26">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="J26">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="M26">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="N26">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="O26">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27">
-        <v>0.61</v>
-      </c>
-      <c r="C27">
-        <v>0.12</v>
-      </c>
-      <c r="D27">
-        <v>0.18</v>
-      </c>
-      <c r="E27">
-        <v>1.3</v>
-      </c>
-      <c r="F27">
-        <v>0.63</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>0.61</v>
-      </c>
-      <c r="K27">
-        <v>0.12</v>
-      </c>
-      <c r="L27">
-        <v>0.18</v>
-      </c>
-      <c r="M27">
-        <v>1.3</v>
-      </c>
-      <c r="N27">
-        <v>0.63</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28">
-        <v>0.13</v>
-      </c>
-      <c r="C28">
-        <v>3.9E-2</v>
-      </c>
-      <c r="D28">
-        <v>3.1E-2</v>
-      </c>
-      <c r="E28">
-        <v>0.2</v>
-      </c>
-      <c r="F28">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G28">
-        <v>0.21</v>
-      </c>
-      <c r="I28">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="J28">
-        <v>0.13</v>
-      </c>
-      <c r="K28">
-        <v>3.9E-2</v>
-      </c>
-      <c r="L28">
-        <v>3.1E-2</v>
-      </c>
-      <c r="M28">
-        <v>0.2</v>
-      </c>
-      <c r="N28">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="O28">
-        <v>0.21</v>
-      </c>
-      <c r="Q28">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30">
-        <v>7.7999999999999996E-3</v>
-      </c>
-      <c r="E30">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F30">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="G30">
-        <v>1.4E-2</v>
-      </c>
-      <c r="J30">
-        <v>7.7999999999999996E-3</v>
-      </c>
-      <c r="M30">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="N30">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="O30">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/Vollanalysen.xlsx
+++ b/src/Vollanalysen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Projekte\NuVe\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17E3238-6B3F-402E-BC5C-89EA5F594BE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF5E5E4-D056-45A9-9DA3-F320BE6A58D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="726" firstSheet="1" activeTab="2" xr2:uid="{15B55FA9-FDF5-44FF-A42C-EF11325012E1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="726" firstSheet="1" activeTab="5" xr2:uid="{15B55FA9-FDF5-44FF-A42C-EF11325012E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht NV" sheetId="1" r:id="rId1"/>
@@ -15012,7 +15012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216F679A-9BD8-4043-89D3-39CD60DB234B}">
   <dimension ref="A1:AJ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AM11" sqref="AM11"/>
     </sheetView>
@@ -21440,8 +21440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCD9A68-95D7-4350-953B-984806B54ECE}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21466,7 +21466,7 @@
       <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1300000000</v>
       </c>
     </row>
@@ -21474,7 +21474,7 @@
       <c r="A4" t="s">
         <v>37</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>19000000</v>
       </c>
     </row>
@@ -21482,7 +21482,7 @@
       <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>4100000000</v>
       </c>
     </row>
@@ -21490,37 +21490,43 @@
       <c r="A6" t="s">
         <v>39</v>
       </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>40</v>
       </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>41</v>
       </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>45</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>3100000000</v>
       </c>
     </row>
@@ -21528,7 +21534,7 @@
       <c r="A13" t="s">
         <v>46</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>6300000000</v>
       </c>
     </row>
@@ -21536,32 +21542,37 @@
       <c r="A14" t="s">
         <v>47</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>48</v>
       </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>50</v>
       </c>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>51</v>
       </c>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>52</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>6400000000</v>
       </c>
     </row>
@@ -21569,7 +21580,7 @@
       <c r="A20" t="s">
         <v>53</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>1400000000</v>
       </c>
     </row>
@@ -21577,7 +21588,7 @@
       <c r="A21" t="s">
         <v>54</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>440000</v>
       </c>
     </row>
@@ -21585,57 +21596,67 @@
       <c r="A22" t="s">
         <v>55</v>
       </c>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>56</v>
       </c>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>57</v>
       </c>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>58</v>
       </c>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>59</v>
       </c>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>60</v>
       </c>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>61</v>
       </c>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>62</v>
       </c>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>64</v>
       </c>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>65</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>86000000</v>
       </c>
     </row>
@@ -21643,6 +21664,7 @@
       <c r="A33" t="s">
         <v>66</v>
       </c>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -21654,6 +21676,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
